--- a/500all/speech_level/speeches_CHRG-114hhrg22594.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg22594.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="486">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="468">
   <si>
     <t>committee_name</t>
   </si>
@@ -52,9 +52,6 @@
     <t>412270</t>
   </si>
   <si>
-    <t>Jason Chaffetz</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Chairman Chaffetz. The Committee on Oversight and Government Reform will come to order.    And without objection, the chair is authorized to declare a recess at any time.    We have an important hearing today examining the management practices and misconduct at the Transportation Security Administration, the TSA.    As we enter the summer travel, many Americans are headed to the airport. We get a lot of people who come in from overseas who want to travel domestically, but we have got a lot of Americans who are taking their families, they are going on business, a whole array, everything you can think about. And then the numbers are pretty amazing how many people travel on a daily basis.    But often when they get there, they are finding that there are very long lines. Now, we need our airplanes and airports to be as secure as possible, but the practices of securing those airports, I think, continues to be an ongoing question because sometimes the lines become so difficult and so long.    During one week in mid-March nearly 6,800 passengers missed their flights due to long waits at TSA checkpoints. At the Charlotte airport, passengers waited more than 3 hours just to get through security. And many airports are complaining TSA is only getting worse, not better, and yet there has been a rise in the sheer number of people that were working at the TSA certainly since its inception.    But you are also going to find that the attrition rate is pretty stunning, and there is a reason why. I think it is a key indicator as to how the organization is performing and who is being rewarded and not being rewarded and how do people generally feel about the organization.    I think people are patient. They are willing to wait in line if they feel like the airport is becoming secure, but last summer, the Department of Homeland Security inspector general performed covert testing at TSA's airports' security screenings and found ``failures in technology, failures in TSA procedures, and human error.'' The IG, the inspector general, testified before this committee that ``layers of security were simply missing.''    I understand that some recommendations are still outstanding, although I appreciate the TSA has taken steps to address many of the inspector general's findings. As TSA works to improve security and reduce wait times to reasonable levels, the agency's staffing problem threatens to undermine its progress.    Currently, the agency is losing--think about this; these numbers are pretty stunning. They are losing about 103 screeners each week through attrition. Now, that is a little bit of a scary number because think that is telling us that they really don't like working there.    In 2014, this is again a very stunning number, 373 people joined but 4,644 people departed. There are a lot of people looking for good jobs, good opportunity in this country, and so when you have 4,600 people leave that job and they are only able to attract 373, what does that tell you? It tells you there is probably a management problem there and that there are probably some challenges and some underlying things and causes that ought to be examined.    The government actually, I think, does a good job in that it surveys Federal employees at all the different agencies across all of government. And remember, there are more than 2 million Federal employees out there. Of the 320 agencies that are ranked and scored, the TSA ranked 313 out of 320, making it one of the worst places to work.    The committee has been contacted by a large number of whistleblowers who have given us some insight into what it might be. We have also reached out to some individuals. I don't want you to assume that the panel here today are simply whistleblowers. In fact, that is not the case.    One of the biggest causes that have attributed to its TSA challenges is leadership and management. Strong, effective leadership could not be more important to an agency fraught with problems. Instead, as we have chatted with people and whistleblowers have come forward, we found that the TSA has developed a highly retaliatory culture that discourages speaking up about problems.    They have also raised concerns about leadership failing to punish high-level managers who commit misconduct. When hardworking rank-and-file men and women are severely punished, yet their managers get off easy, it creates a morale problem, and allowing such a culture to fester has a highly detrimental effect on the mission of the agency, keeping the airways safe.    I don't care where you are in life or what you are doing, when you see somebody who is doing something bad and it is not fixed, it is demoralizing. And when you have maybe a group of people on the line doing one thing and something happens and they get treated differently than the management, it is very demoralizing. And I think that is clearly what we are seeing at the TSA.    Today's hearing is intended to focus on the toll management challenges like this take on TSA employees. They are those tasked with protecting our transportation infrastructure.    This brings us to our witnesses today who are here to discuss their own experiences with systematic management and leadership challenges at the TSA. Their testimony before this committee, like all of their interactions with this committee, is protected. It is against the law to retaliate against individuals for engaging in protected activity. It doesn't matter if we reach out to them or they reach out to us, they are protected from retaliation. And communications to the press about waste, fraud, and abuse or mismanagement are also protected communications.    These important disclosures are often an effective way to bring waste, fraud, and abuse or mismanagement to the attention of those that are in a position to remedy it. But sometimes it doesn't matter how many protections you have in place. Management and leadership in Federal agencies find subtle ways to marginalize or demean those who do nothing more than speak the uncomfortable truth.    I want to be clear that this committee will not stand for reprisal against individuals for cooperating with congressional investigations. This is especially true for today's witnesses, and we appreciate their brave stature to come forward and at some risk come and chat with us before Congress. But it is the way we are going to get to the truth. It is the way we are going to be able to protect the greater whole. And I think the gentlemen here today will provide valuable insight and hopefully can make the whole of government, the whole of the TSA and its vital mission a better place to do it. So we thank these gentlemen for stepping forward and participating with us today.</t>
   </si>
   <si>
@@ -64,9 +61,6 @@
     <t>400090</t>
   </si>
   <si>
-    <t>Elijah E. Cummings</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Cummings. Thank you very much, Mr. Chairman.    Today, we hear the testimony of three employees from the Transportation Security Administration who allege a series of abuses and improper practices within that agency. Whistleblowers are essential to identifying waste, fraud, and abuse, and they are critical to this committee's mission.    In fact, based on the work conducted by this committee today, Federal statutes protect employees who will bring wrongdoing to light. I know the chairman and I share a strong commitment to ensuring that Federal employees who come before us are protected from retaliation and reprisal.    Equally important, we as members of the committee also have an obligation to run these allegations to ground and determine if we can substantiate them. Of course, just as we want to protect whistleblowers from retaliation, I am sure we all agree that we also want to protect Federal employees from claims that are not substantiated.    I thank all three of these men who have stepped forward today for their willingness to testify and for the information that they provided in their transcribed interviews with the committee staff. These individuals have raised troubling allegations of improper personnel practices within TSA. All three have filed complaints with the Office of Special Counsel through the Equal Employment Opportunity process or in Federal court. Each allegation we have heard deserves a thorough and fair investigation. I think these three individuals deserve that, too.    Unfortunately, as we hold this hearing today, the committee has not yet had an opportunity to complete such an investigation. In some cases, we have not spoken with those who have firsthand knowledge of the allegations we have heard. We have also not yet heard from TSA regarding most of the allegations raised by these employees. I hope the committee will talk with all of the individuals involved and review all of the documents relevant to the issues we will discuss today in all that is fairness and that is thoroughness.    Many of the allegations our witnesses today have raised were initiated under previous agency administrators. In some cases, the allegations were even resolved under previous administrators. It also appears that the current TSA administrator, Vice Admiral Peter Neffenger, has moved to address many of the practices that have been cited by the whistleblowers. One of today's witnesses, Jay Brainard, described this progress in his transcribed interview with the committee by saying, ``I think we have made tremendous progress with Mr. Neffenger.'' He added, ``Since Mr. Neffenger has come in, I have heard nothing in terms of misconduct.''    Under Administrator Neffenger, TSA has issued new policies that clarify the membership and the role of the Executive Resources Council, curtail the abuse of awarded multiple achievement bonuses for the same activities, and ensure that directed reassignments are made only to support agency goals.    Administrator Neffenger has also moved to address the airport security lapses identified by the inspector general and by the agency's own testing teams that we examined in this committee's hearing on TSA last fall. He has ended the Managed Inclusion II program that permitted individuals who had not received background risk assessments to receive expedited screening, and he has placed agency focus squarely on resolving all alarms at screening checkpoints. As Administrator Neffenger testified before this committee last fall, he is ``readjusting the measurements of success to focus on security rather than speed.''    And so I am pleased to see that his actions are beginning to show real progress. However, people may not want to hear this, but these actions are likely to slow lines at airports even further, and things may get even worse if TSA's workforce continues to be reduced.    Administrator Neffenger recently testified that the TSA has nearly 6,000 fewer transportation security officers in his workforce than it had 4 years ago. It is being asked to do more with less, and that is indeed a problem.    So I hope that our committee will continue to focus on holding TSA accountable for completing essential reforms and that we will provide him with the resources he needs to do his job.    And so I look forward to the testimony of our witnesses today, and I want to thank you all for being with us.    Mr. Chairman, with that, I will yield back.</t>
   </si>
   <si>
@@ -79,9 +73,6 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>Brainard</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Brainard. Chairman Chaffetz, Ranking Member Cummings, and members of the committee, I am pleased to appear at the request of this committee today to discuss issues surrounding the Transportation Security Administration.    Our business is a serious business. The national strategy of the United States of America is clear: Defending our Nation against all enemies, both foreign and domestic, is the first fundamental commitment of the Federal Government. When that commitment is in danger of being fulfilled, then it is incumbent upon those of us entrusted to ensure our national security to come forward, and if necessary, report to you, and to do so at whatever the cost may be. We are all here today for that purpose.    While the new administrator of TSA has made security a much-needed priority once again, make no mistake about it, we remain an agency in crisis. TSA remains in crisis as a result of poor leadership and oversight of many of our senior leadership appointments, which have taken place over the past several years, some of which still serve in key positions within our agency today.    Our culture went into rapid decline after having gone unchecked by its leader and various agencies and committees responsible for oversight, and for that reason we continue to have a crisis of leadership and culture.    From 2011 to early 2012 TSA chose in abundance unprepared employees to fill key leadership vacancies. These were people who were chosen not because they were time-tested leaders or mature or experienced in actually leading people in large, complex organizations, but because they were liked or good at managing programs or projects. In fact, many of these leaders lacked any security experience and had ever worked in a field operation their entire career.    The continuous result of the Federal Employee Viewpoint Survey each Federal agency's workforce responds to, as graded by its own people, has declared repeatedly our agency has failed its employees year after year. We continue to have a culture problem in TSA brought on by an unwillingness to address misconduct of senior executives, combined with poor leadership and decision-making, all of which have been the number-one contributing factor of our security risks and which led to our poor performance.    We have low morale, a lack of trust, and field leaders who are fearful to speak out, and for good reason. People at all levels of the agency, both in the field and at headquarters, have spent most of their time constantly looking over their shoulder when doing the right thing.    And let me make one thing abundantly clear: This is not a TSA headquarters issue. There are legions of decent people at our headquarters who are just as disgusted and just as concerned as I am sitting here today. This is and has always been a senior executive issue, a senior executive problem. I refer to those at the very top of the food chain.    For years, we had many senior executives, most of which who completely lacked the experience needed for their position, run amok and make decisions or conduct themselves in an unethical manner, which eroded our ability to complete the security mission and grossly compromised the integrity of our agency.    Until substantive change occurs, TSA will remain a culture of positional leadership. Despite the results of our covert testing being made public, we still have some of those very same leaders in critical positions whose focus and attention are on numbers first and leave security and people last. In fact, many of the same people who broke our agency remain in key positions of influence even today.    Because of this, we continue to empower positional leaders who obtain compliance because they fill a certain leadership vacancy. And to be clear, they are not followed because they are leaders. Subordinates follow these positional leaders out of fear, whose only objectives are limited to bean-counting and instilling fear into anyone who opposes them. These leaders are some of the biggest bullies in government, and as a result, many people feel battered, abused, and overworked.    These positional leaders convince themselves they are liked by everyone and their decisions are accepted because there's almost no one left to question them. They have become powerful in their own mind and regularly make decisions, regardless of the people affected by them. I know of several people in key leadership positions that ``went along to get along,'' who regret having supported the agenda of those positional leaders.    In an effort to clean up our agency, TSA's former administrator John Pistole and his deputy John Halinski instituted an agency-wide ethics training, complete with a TSA Wall of Shame for the purpose of exposing a few bad apples in our agency and publicly shaming them. And to quote Mr. Halinski's message to our people in one of the videos every employee was required to see, ``People, we're better than this.''    Well, that Wall of Shame is more than a few names light today as senior executives in TSA have been held to a completely different standard than the rest of the agency. Not one person for the state of our agency is glad to see any of us here today. Those who have spoken up have been and continue to be targeted and victimized, with the goal of running them out of Federal service.    Until the previous--under the previous administration, complaints were buried and, in many cases, so were the complainers. No significant, consistent, or even proportionate action has been taken to remove or even hold leaders in the TSA Executive Service properly accountable for misconduct and poor performance.    While the results of our covert testing were made public last May, it was embarrassing, and when it came time to address this problem, the people who were really to blame never stepped forward to accept or even acknowledge any responsibility. Instead, they sat back and they watched our officers on the frontline get publicly shamed. The truth is our officers did not fail. They did exactly what that TSA senior executive leadership team demanded of them.    For years, TSA executive leadership's priority shifted further away from security and eventually became focused only on reducing wait times and increasing checkpoint throughput. Those Federal security directors who raised concerns or voiced dissenting opinion to leadership were targeted, and one way was through the use of directed reassignments.    One of my counterparts had a conversation with one of the very senior executive leaders responsible for our problems who had indicated to him they developed a loyalty list and were systematically removing the Federal security directors who were on that list. For those not familiar, a directed reassignment is a tool regularly used by the airline industry to force people into retirement. And because it is technically permissible to do so in civilian service with a business reason even without a mobility agreement, they targeted specific FSDs and deputies. The only thing wrong was this--with this is they were absent a business reason.    As a Federal security director vacancy occurs, many of them were filled with under-qualified personnel whose only redemption was their loyalty to the positional leaders who put them there. TSA executive leadership waged an all-out campaign against the Federal security directors, and of the 157 original Federal security directors hired after the 9/11 attacks, there are only five of us left today.    When it became public knowledge that the Veterans Administration spent a few hundred thousand dollars on the directed reassignment of a few people, the public was outraged. TSA spent millions.    In looking at the hearing agenda posted on the committee's website, it mentions what I believe to be the most important part of why we are here, which was the toll that management challenges have taken on our workforce. My opening statement only scratches the surface.    As the saying goes, ``Those who do not learn from history are doomed to repeat it.'' While the idea of forgetting mistakes of the past and looking forward to a brighter future sounds good, the reality is our leadership usually changes when there's a change of administration. If that happens, and if these issues continue to go unaddressed, the people who damaged this agency will once again be off the leash, and what progress we have made under Administrator Neffenger will have been in vain.    We need this committee to take a serious look at the road ahead and ensure this never happens again.    I hope to add value to this hearing by answering your questions and providing insight based upon my experiences. Thank you again for having me. Mr. Chairman, that concludes my opening statement.</t>
   </si>
   <si>
@@ -109,27 +100,18 @@
     <t xml:space="preserve">    Chairman Chaffetz. I thank the gentleman.    Mr. Livingston, you are now recognized for 5 minutes.</t>
   </si>
   <si>
-    <t>Livingston</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Livingston. Chairman Chaffetz, Ranking Member Cummings, and members of the committee, thank you for the opportunity to speak with you regarding the Transportation Security Administration and the reported issues of misconduct, whistleblower retaliation, security violations, and the lack of accountability pertaining to TSA's senior executives and the potential impact on the mission.    I am here today to share with you what I have seen firsthand and as a member of the TSA senior leadership team and as a victim of these reprehensible practices after confronting and reporting misconduct by top leaders. I am here because I believe TSA has major management challenges, which are imposing great risk of failure to performing its mission effectively and could have serious consequences for the U.S. national and economic security. It matters what leaders do, and it matters what they do not do.    Noted educational leader scholars, Gruenter and Whitaker, have stated ``The culture of any organization is shaped by the worst behavior the leader is willing to tolerate.'' In TSA, that worst has yet to be identified because the men and women of the agency keep seeing examples of that worst behavior being confronted by the media, not the Transportation Security Administration leadership, and there seems to be no bottom to this failed leadership abyss.    I would like to first state by telling you that the vast majority of the frontline employees at TSA are professional and truly care about the important mission of the agency. Most come in every day and do a great job, but what you hear about is that 1 percent of failed leadership, and that's why I'm here today.    For the record, I'm a career senior intelligence and security management executive, and for the past 36 years, I have served successfully in all of my prior roles. I am a disabled marine veteran, and for the one basic principle that has followed me through my entire adult life is that we do not lie, cheat, or steal, and we do not tolerate those that do. It's that simple.    I am not a novice when it comes to the important matters we will discuss here today. Beyond the almost four decades of leadership experience, I bring a scholarly practitioner viewpoint. My doctorate of management focuses on applied research and expanding leadership within the field of the executive organizational management. My field of study has been on crisis leadership in organizational crises.    The integration of organizational management issues with technological considerations and the global environment, while considering the critical role of information technologies in all aspects of management practice has been a direct correlation to my executive leadership role at TSA. I am an expert in the areas of organizational integration, the application of critical-thinking skills and how to develop the management high-performance teams and how to analyze and evaluate organizations.    I have held a top-secret clearance for the entire 36 years of my service as an intelligence professional. This is an important note, as I will be identifying security incidents and violations that have occurred at TSA and explain where TSA has failed to act properly.    My career professional status is good. I am in good standing with my agency, and I'm not pending any administrative action or investigation. I'm here today by my own choice to inform you of those challenges. I relay this information so that the committee might better understand that the issues I raised at TSA were more than just mere misconduct. This is about the inability of TSA to focus on the mission due to the overwhelming EEO complaints and personnel issues brought on by failed leadership.    The refusal to address or to hold senior leaders accountable is simply paralyzing this agency. The leadership imperative is missing at TSA. In your role as an oversight committee for TSA, you should be gravely alarmed and concerned with these issues because TSA employees are less likely to report operational security or threat-relevant issues out of fear of retaliation.    No one who reports issues at TSA is safe. This prevents the necessary organizational agility to respond to evolving threats and enemies who are always adapting to exploit any real, potential, or perceived opportunity to strike. This negates any operational improvement process that prevents the agency from fulfilling its mandated mission of protecting the United States transportation system and protecting the economic well-being from threats.    Retaliation by TSA senior leadership is used extensively and systematic, as reported by the media and historically acknowledged by the GAO report 10-139 that was provided to you in October of 2009. The exact same thing happened to me then and has happened to other SES leaders then.    Senior organizational leaders use this retaliation as a means to silence those who would report violations, security concerns, or operational issues by forcing employees into early retirement or resignations. No employee will be willing to report these issues when simple fraud, waste, or abuse are reasons for leaders to retaliate against employees.    Senior leaders appearing before Congress stated that they will correct this behavior or fix TSA should be held to strict timelines or you will continue to get platitudes and false narratives. I would bet that you've heard this in the last 6 months, yet you continue to hear these media reports.    I would to take this opportunity to thank my Congressman and my Senator Cardin for the opportunity to represent me with TSA. This is democracy at its best. Thank you.</t>
   </si>
   <si>
     <t xml:space="preserve">    Chairman Chaffetz. Thank you. Mr. Rhoades, you are now recognized for 5 minutes.</t>
   </si>
   <si>
-    <t>Rhoades</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Rhoades. Chairman Chaffetz, Ranking Member Cummings, and members of the committee, thank you for the opportunity to speak to you regarding the TSA's use of punitive directed reassignments, senior leader misconduct, retaliation, and its impact on security.    Directed reassignments have been punitively used by TSA senior leadership as a means to silence dissent, force early retirements or resignations. Senior leader misconduct and retaliation help explain why the TSA underperforms.    Recently, I was asked to profile Somali imams and community members visiting my office. I will not do this. I am not a tiff-tiff. Additionally, my supervisor accused me of ``going native'' after attending a meeting at a local mosque. Those in the community in Minneapolis know I would never betray their trust by profiling them.    This unfortunate incident is not reflective of the entire U.S. Government. TSA's problems are rooted in the areas of leadership and culture. Ours is a culture of misconduct, retaliation, lack of trust, cover-ups, and the refusal to hold senior leaders accountable for poor judgment and malfeasance.    Habitually, my agency bypasses merit principles in its allocations of awards and hiring. Simply put, we violate Jack Welch's principles of picking people. We elevate people in senior positions that do not have the experience, character, and ability to lead and manage a large, complex organization. The meteoric rise of unqualified individuals eventually corrects itself but only after subordinates and other employees suffer the consequences of poor leadership.    There is a chronic indifference towards investigating legitimate complaints. Moreover, my agency counsel employs nondisclosure agreements to keep people silent about misconduct and malfeasance, and the vicious cycle continues.    While some of these issues may predate the current TSA administrator, I've been in direct communication with him and my agency chief counsel on all these issues, some dating back since February of 2015, and I have yet to receive a reply.    Directed reassignments: I am the only TSA employee whose directed reassignment has been accepted by the U.S. Office of Special Counsel. I was given a directed reassignment based on the mistaken belief I was leaking information to the media in Minneapolis, and my professional and personal relationship with the former Minneapolis-Saint Paul Federal security director, area director, chief operating officer, and TSA acting administrator Ken Kasprisin. My agency was aware I was a recent father of two wonderful children but could not leave the State of Minnesota unless I was willing to lose custody of my children.    There's a financial price we as taxpayers pay for TSA mismanagement. I estimate the money saved by ending punitive directed reassignments, mismanagement, and out-of-control bonuses to senior executives would likely fund enough transportation security officers to staff some of our largest airports in the Nation.    The most egregious example of senior leader misconduct occurred with an assistant administrator. This employee sent provocative messages to a subordinate female under his purview. When questioned by an OI agent, he lied three times. The recommended penalty for a single lack of candor associated with an official investigation is removal from service.    A 24-page Office of Professional Responsibility report recommended this assistant administrator be removed from service. Instead, either the deputy or the acting TSA administrator ignored the advice of the Office of Professional Responsibility. The subject of this investigation is still employed with TSA. Why is it acceptable for TSA senior executives to lie when TSOs are removed for the same infraction?    In conclusion, the American public and Congress should care about what occurs in TSA because its senior leaders are mismanaging our agency, and our security effectiveness is compromised. Our corporate culture is analogous to the movie Animal House while the relationship between our headquarters and the field is best depicted in the TV series Game of Thrones.    I cannot imagine any company being successful when it treats its employee the way TSA does. If this was a private company, the entire leadership team would have been removed long ago.    I thank this committee for the opportunity to appear before you. I thank my Congresswoman from Minnesota, Betty McCollum, for her steadfast support. Until we correct the problems facing my agency, the TSA will always fall short of operating within the band of excellence. Our performance and potential reflects an agency in dire need of oversight. The American public deserves an agency focused on defeating the threat. Employees in TSA, TSOs in particular, deserve leaders who value and treat them with respect. We can do much better.    Mr. Chairman, this concludes my prepared statement. I look forward to answering any questions from you or other members of this committee. Thank you.</t>
   </si>
   <si>
     <t>400273</t>
   </si>
   <si>
-    <t>John L. Mica</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Mica. [Presiding] Well, on behalf of the committee, we thank all three of the witnesses and we will now turn to questions. And I will begin with the first round.    All three of you are currently TSA employees?</t>
   </si>
   <si>
@@ -364,9 +346,6 @@
     <t>400116</t>
   </si>
   <si>
-    <t>John J. Duncan, Jr.</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Duncan. Thank you, Mr. Chairman.    Dr. Livingston, I have an article which talks about the $336,000 TSA paid IBM for producing an app. This article says ``When an app isn't much more than a random number generator, it is hard to imagine how it could cost that much for the development alone, but it is typical of government spending.''    And I understand from the staff that you once recommended an analysis that another employee refused to do that--and ended up spending $12 million on a project that should have cost just $3 million. Would you tell us about that and any other examples of huge waste that you have seen on your watch?</t>
   </si>
   <si>
@@ -412,9 +391,6 @@
     <t>412644</t>
   </si>
   <si>
-    <t>Bonnie Watson Coleman</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mrs. Watson Coleman. Thank you very much, Mr. Chairman, and thank you, gentlemen, for being here.    I want to ask one question. I think it was you, Mr. Brainard, who said that there are only a handful of really bad administrative-level people, a lot of others have left, but you said there is only a handful. Is that 10, is that 12, is that 5?</t>
   </si>
   <si>
@@ -481,9 +457,6 @@
     <t>412552</t>
   </si>
   <si>
-    <t>Mark Meadows</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Meadows. Thank you, Mr. Chairman. Thank each of you for your testimony here today, for your willingness on behalf of the American people to speak up. We know that it does not come without risk. And I for one am committed to making sure that all of our Federal employees are treated fairly. And certainly, when we see retaliation, it is troubling.    Dr. Livingston, when I hear some of your testimony, I always watch the audience, and I see people nodding their head yes or shaking their head that they can't believe these kind of things are happening. So let me just make sure that I am clear. During your probationary period, were there areas where you were able to appeal to other--like the special counsel where--did you appeal some of the decisions to those or could you have appealed to those?</t>
   </si>
   <si>
@@ -550,9 +523,6 @@
     <t>412595</t>
   </si>
   <si>
-    <t>Robin L. Kelly</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Kelly. Thank you, Mr. Chair, and welcome to the witnesses.    Just for clarity, Mr. Rhoades, you told committee staff that after March 1, 2015, no one has told you that they believe wait times are being falsified. Is that correct? Is that what you said to the committee staff?</t>
   </si>
   <si>
@@ -634,9 +604,6 @@
     <t>412213</t>
   </si>
   <si>
-    <t>Tim Walberg</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Walberg. Thank you, Mr. Chairman. Thanks to the panelists for being here.    Mr. Livingston, you know, we have been, of course, here today talking about failure at seemingly all levels in employee morale and training, et cetera, and the consistent terrible rankings that DHS has. What do you think it is going to take to instill a meaningful change in employee morale?</t>
   </si>
   <si>
@@ -712,9 +679,6 @@
     <t>400249</t>
   </si>
   <si>
-    <t>Stephen F. Lynch</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Lynch. Thank you, Mr. Chairman. And I want to thank the witnesses for helping the committee with its work today.    In my previous life, I was a union steward and a union president, and then later on, a labor lawyer, practicing labor lawyer on behalf of unions. I am just curious, you know, when I was a steward on the worksite, when I had employees that were being treated unfairly, I would take it on myself. That would be my job. I would deal with management to make sure that people were being treated fairly. That way, my workers weren't continually banging heads with management; it was me. And, you know, I sort of enjoyed that work, but a lot of people don't.    Would it be helpful at all in your workplace of you had somebody like that that you could go to that would--I know that AFGE has a representative in the workplace, but you don't have full bargaining rights and all the rights that the other Federal employees have, so you don't have those. Would that be helpful?</t>
   </si>
   <si>
@@ -823,9 +787,6 @@
     <t>412608</t>
   </si>
   <si>
-    <t>Gary J. Palmer</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Palmer. Thank you, Mr. Chairman.    Mr. Rhoades, I believe you used to work alongside former acting head Ken ----</t>
   </si>
   <si>
@@ -895,9 +856,6 @@
     <t>400074</t>
   </si>
   <si>
-    <t>Wm. Lacy Clay</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Clay. Thank you, Mr. Chair.    And, Mr. Livingston, TSA cut its screening staff over the past couple of years anticipating that its pre-check program would help speed up the overall process, but not enough passengers have enrolled. News reports have indicated that morale inside of TSA is extremely low, which is likely a factor contributing to staffing shortages affecting TSA security.    Reports indicate that travelers are arriving at security checkpoints where not available queues are open for general screening. And I can attest to that going through St. Louis's airport. I am part of the pre-check program, but it is more often than not it is closed. And I am told by officers that they don't have enough people to staff it.    Is there a long-term strategy to fix the morale issue and the employment issue? I know there is--go ahead.</t>
   </si>
   <si>
@@ -979,9 +937,6 @@
     <t>412622</t>
   </si>
   <si>
-    <t>Earl L. "Buddy" Carter</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Carter. Thank you. Thank you, Mr. Chairman. And thank all of you for being here. We appreciate your presence here today.    I want to start with you, Mr. Brainard, if that is okay. As I understand it, at one point you were assigned in Iowa, is that correct ----</t>
   </si>
   <si>
@@ -1105,9 +1060,6 @@
     <t>400295</t>
   </si>
   <si>
-    <t>Eleanor Holmes Norton</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Norton. Thank you, Mr. Chairman.    Could I just say to all three of you that we very much appreciate your service and appreciate your courage in coming forward.    I chair the Equal Opportunity Commission. I am very interested in this kind of alleged retaliation. It is interesting that when Congress passed title VII, it passed a retaliation provision in the statute that it is very, very important. And of course if there isn't any sense that when can I be punished for coming forward, this very, very heavy presumption against coming forward. So I was interested to hear about--I don't remember even though I had to essentially reform the entire agency, creating new parts of the agency, bringing together people--I don't remember anything called directed reassignments. In my view I can think of no more powerful instrument in the hands of an agency. You testified, I think it was, Mr. Rhoades, about somebody just quit.</t>
   </si>
   <si>
@@ -1180,9 +1132,6 @@
     <t>412474</t>
   </si>
   <si>
-    <t>Mick Mulvaney</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Mulvaney. I thank the chairman. And I wish that Mr. Lynch had stuck around for just a few minutes because he said something, and I thought Mr. Brainard handled it very well, but I will go back just for the record and say I think Mr. Lynch mentioned at the end that the airlines were just interested in moving product, moving people through the room. And I think, Mr. Brainard, you handled that extraordinarily well.    I think that is unfair. I know some folks who work there and their families fly, their friends fly, and they care just as much about safety as we do. It is probably just as inaccurate to say that the airlines only care about moving product as it would be to say that all you care about is safety and that you don't care about the folks who have to stand in line and how long they do.    In fact, I look forward to a longer conversation with Mr. Lynch at another time as to who cares less about people, a corporation or a bureaucracy. My guess is they are probably tied.    But I want to get back to the purpose of the hearing, which is to talk a little bit about the way that the employees are treated. And I just have to ask, and I don't know the answer to this question, is anybody familiar with the circumstance that happened at Charleston, South Carolina, with a Ms. Kimberly Barnett? Does that name ring a bell for anybody?</t>
   </si>
   <si>
@@ -1235,9 +1184,6 @@
   </si>
   <si>
     <t>412661</t>
-  </si>
-  <si>
-    <t>Glenn Grothman</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Grothman. I will start with Mr. Livingston. Here on the sheet they give us they call you Dr. Livingston.</t>
@@ -1870,11 +1816,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1896,11 +1840,9 @@
       <c r="F3" t="s">
         <v>11</v>
       </c>
-      <c r="G3" t="s">
-        <v>12</v>
-      </c>
+      <c r="G3" t="s"/>
       <c r="H3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1920,13 +1862,11 @@
         <v>10</v>
       </c>
       <c r="F4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" t="s"/>
+      <c r="H4" t="s">
         <v>15</v>
-      </c>
-      <c r="G4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1948,11 +1888,9 @@
       <c r="F5" t="s">
         <v>11</v>
       </c>
-      <c r="G5" t="s">
-        <v>12</v>
-      </c>
+      <c r="G5" t="s"/>
       <c r="H5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1974,11 +1912,9 @@
       <c r="F6" t="s">
         <v>11</v>
       </c>
-      <c r="G6" t="s">
-        <v>12</v>
-      </c>
+      <c r="G6" t="s"/>
       <c r="H6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1998,13 +1934,11 @@
         <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G7" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G7" t="s"/>
       <c r="H7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -2026,11 +1960,9 @@
       <c r="F8" t="s">
         <v>11</v>
       </c>
-      <c r="G8" t="s">
-        <v>12</v>
-      </c>
+      <c r="G8" t="s"/>
       <c r="H8" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -2050,13 +1982,11 @@
         <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>15</v>
-      </c>
-      <c r="G9" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G9" t="s"/>
       <c r="H9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -2078,11 +2008,9 @@
       <c r="F10" t="s">
         <v>11</v>
       </c>
-      <c r="G10" t="s">
-        <v>12</v>
-      </c>
+      <c r="G10" t="s"/>
       <c r="H10" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -2102,13 +2030,11 @@
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>15</v>
-      </c>
-      <c r="G11" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G11" t="s"/>
       <c r="H11" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -2130,11 +2056,9 @@
       <c r="F12" t="s">
         <v>11</v>
       </c>
-      <c r="G12" t="s">
-        <v>12</v>
-      </c>
+      <c r="G12" t="s"/>
       <c r="H12" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -2154,13 +2078,11 @@
         <v>10</v>
       </c>
       <c r="F13" t="s">
-        <v>15</v>
-      </c>
-      <c r="G13" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G13" t="s"/>
       <c r="H13" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -2182,11 +2104,9 @@
       <c r="F14" t="s">
         <v>11</v>
       </c>
-      <c r="G14" t="s">
-        <v>12</v>
-      </c>
+      <c r="G14" t="s"/>
       <c r="H14" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -2208,11 +2128,9 @@
       <c r="F15" t="s">
         <v>11</v>
       </c>
-      <c r="G15" t="s">
-        <v>12</v>
-      </c>
+      <c r="G15" t="s"/>
       <c r="H15" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -2232,13 +2150,11 @@
         <v>10</v>
       </c>
       <c r="F16" t="s">
-        <v>20</v>
-      </c>
-      <c r="G16" t="s">
-        <v>31</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G16" t="s"/>
       <c r="H16" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -2260,11 +2176,9 @@
       <c r="F17" t="s">
         <v>11</v>
       </c>
-      <c r="G17" t="s">
-        <v>12</v>
-      </c>
+      <c r="G17" t="s"/>
       <c r="H17" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -2284,13 +2198,11 @@
         <v>10</v>
       </c>
       <c r="F18" t="s">
-        <v>20</v>
-      </c>
-      <c r="G18" t="s">
-        <v>34</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G18" t="s"/>
       <c r="H18" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -2310,13 +2222,11 @@
         <v>10</v>
       </c>
       <c r="F19" t="s">
-        <v>36</v>
-      </c>
-      <c r="G19" t="s">
-        <v>37</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="G19" t="s"/>
       <c r="H19" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -2336,13 +2246,11 @@
         <v>10</v>
       </c>
       <c r="F20" t="s">
-        <v>20</v>
-      </c>
-      <c r="G20" t="s">
-        <v>34</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G20" t="s"/>
       <c r="H20" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -2362,13 +2270,11 @@
         <v>10</v>
       </c>
       <c r="F21" t="s">
-        <v>36</v>
-      </c>
-      <c r="G21" t="s">
-        <v>37</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="G21" t="s"/>
       <c r="H21" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -2388,13 +2294,11 @@
         <v>10</v>
       </c>
       <c r="F22" t="s">
-        <v>20</v>
-      </c>
-      <c r="G22" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G22" t="s"/>
       <c r="H22" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -2414,13 +2318,11 @@
         <v>10</v>
       </c>
       <c r="F23" t="s">
+        <v>31</v>
+      </c>
+      <c r="G23" t="s"/>
+      <c r="H23" t="s">
         <v>36</v>
-      </c>
-      <c r="G23" t="s">
-        <v>37</v>
-      </c>
-      <c r="H23" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -2440,13 +2342,11 @@
         <v>10</v>
       </c>
       <c r="F24" t="s">
-        <v>20</v>
-      </c>
-      <c r="G24" t="s">
-        <v>31</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G24" t="s"/>
       <c r="H24" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -2466,13 +2366,11 @@
         <v>10</v>
       </c>
       <c r="F25" t="s">
-        <v>36</v>
-      </c>
-      <c r="G25" t="s">
-        <v>37</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="G25" t="s"/>
       <c r="H25" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -2492,13 +2390,11 @@
         <v>10</v>
       </c>
       <c r="F26" t="s">
-        <v>20</v>
-      </c>
-      <c r="G26" t="s">
-        <v>34</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G26" t="s"/>
       <c r="H26" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -2518,13 +2414,11 @@
         <v>10</v>
       </c>
       <c r="F27" t="s">
-        <v>36</v>
-      </c>
-      <c r="G27" t="s">
-        <v>37</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="G27" t="s"/>
       <c r="H27" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -2544,13 +2438,11 @@
         <v>10</v>
       </c>
       <c r="F28" t="s">
-        <v>20</v>
-      </c>
-      <c r="G28" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G28" t="s"/>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -2570,13 +2462,11 @@
         <v>10</v>
       </c>
       <c r="F29" t="s">
-        <v>36</v>
-      </c>
-      <c r="G29" t="s">
-        <v>37</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="G29" t="s"/>
       <c r="H29" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -2596,13 +2486,11 @@
         <v>10</v>
       </c>
       <c r="F30" t="s">
-        <v>20</v>
-      </c>
-      <c r="G30" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G30" t="s"/>
       <c r="H30" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -2622,13 +2510,11 @@
         <v>10</v>
       </c>
       <c r="F31" t="s">
-        <v>36</v>
-      </c>
-      <c r="G31" t="s">
-        <v>37</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="G31" t="s"/>
       <c r="H31" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -2648,13 +2534,11 @@
         <v>10</v>
       </c>
       <c r="F32" t="s">
-        <v>20</v>
-      </c>
-      <c r="G32" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G32" t="s"/>
       <c r="H32" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -2674,13 +2558,11 @@
         <v>10</v>
       </c>
       <c r="F33" t="s">
-        <v>36</v>
-      </c>
-      <c r="G33" t="s">
-        <v>37</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="G33" t="s"/>
       <c r="H33" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -2700,13 +2582,11 @@
         <v>10</v>
       </c>
       <c r="F34" t="s">
-        <v>20</v>
-      </c>
-      <c r="G34" t="s">
-        <v>34</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G34" t="s"/>
       <c r="H34" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2726,13 +2606,11 @@
         <v>10</v>
       </c>
       <c r="F35" t="s">
-        <v>36</v>
-      </c>
-      <c r="G35" t="s">
-        <v>37</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="G35" t="s"/>
       <c r="H35" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2752,13 +2630,11 @@
         <v>10</v>
       </c>
       <c r="F36" t="s">
-        <v>20</v>
-      </c>
-      <c r="G36" t="s">
-        <v>34</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G36" t="s"/>
       <c r="H36" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2778,13 +2654,11 @@
         <v>10</v>
       </c>
       <c r="F37" t="s">
-        <v>20</v>
-      </c>
-      <c r="G37" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G37" t="s"/>
       <c r="H37" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2804,13 +2678,11 @@
         <v>10</v>
       </c>
       <c r="F38" t="s">
-        <v>20</v>
-      </c>
-      <c r="G38" t="s">
-        <v>31</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G38" t="s"/>
       <c r="H38" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2830,13 +2702,11 @@
         <v>10</v>
       </c>
       <c r="F39" t="s">
-        <v>36</v>
-      </c>
-      <c r="G39" t="s">
-        <v>37</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="G39" t="s"/>
       <c r="H39" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2856,13 +2726,11 @@
         <v>10</v>
       </c>
       <c r="F40" t="s">
-        <v>20</v>
-      </c>
-      <c r="G40" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G40" t="s"/>
       <c r="H40" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2882,13 +2750,11 @@
         <v>10</v>
       </c>
       <c r="F41" t="s">
-        <v>36</v>
-      </c>
-      <c r="G41" t="s">
-        <v>37</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="G41" t="s"/>
       <c r="H41" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2908,13 +2774,11 @@
         <v>10</v>
       </c>
       <c r="F42" t="s">
-        <v>20</v>
-      </c>
-      <c r="G42" t="s">
-        <v>31</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G42" t="s"/>
       <c r="H42" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2934,13 +2798,11 @@
         <v>10</v>
       </c>
       <c r="F43" t="s">
-        <v>36</v>
-      </c>
-      <c r="G43" t="s">
-        <v>37</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="G43" t="s"/>
       <c r="H43" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2960,13 +2822,11 @@
         <v>10</v>
       </c>
       <c r="F44" t="s">
-        <v>20</v>
-      </c>
-      <c r="G44" t="s">
-        <v>31</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G44" t="s"/>
       <c r="H44" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2986,13 +2846,11 @@
         <v>10</v>
       </c>
       <c r="F45" t="s">
-        <v>36</v>
-      </c>
-      <c r="G45" t="s">
-        <v>37</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="G45" t="s"/>
       <c r="H45" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -3012,13 +2870,11 @@
         <v>10</v>
       </c>
       <c r="F46" t="s">
-        <v>20</v>
-      </c>
-      <c r="G46" t="s">
-        <v>31</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G46" t="s"/>
       <c r="H46" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -3038,13 +2894,11 @@
         <v>10</v>
       </c>
       <c r="F47" t="s">
-        <v>36</v>
-      </c>
-      <c r="G47" t="s">
-        <v>37</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="G47" t="s"/>
       <c r="H47" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -3064,13 +2918,11 @@
         <v>10</v>
       </c>
       <c r="F48" t="s">
-        <v>15</v>
-      </c>
-      <c r="G48" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G48" t="s"/>
       <c r="H48" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -3090,13 +2942,11 @@
         <v>10</v>
       </c>
       <c r="F49" t="s">
-        <v>20</v>
-      </c>
-      <c r="G49" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G49" t="s"/>
       <c r="H49" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -3116,13 +2966,11 @@
         <v>10</v>
       </c>
       <c r="F50" t="s">
-        <v>20</v>
-      </c>
-      <c r="G50" t="s">
-        <v>31</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G50" t="s"/>
       <c r="H50" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -3142,13 +2990,11 @@
         <v>10</v>
       </c>
       <c r="F51" t="s">
-        <v>20</v>
-      </c>
-      <c r="G51" t="s">
-        <v>34</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G51" t="s"/>
       <c r="H51" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -3168,13 +3014,11 @@
         <v>10</v>
       </c>
       <c r="F52" t="s">
-        <v>15</v>
-      </c>
-      <c r="G52" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G52" t="s"/>
       <c r="H52" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -3194,13 +3038,11 @@
         <v>10</v>
       </c>
       <c r="F53" t="s">
-        <v>20</v>
-      </c>
-      <c r="G53" t="s">
-        <v>31</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G53" t="s"/>
       <c r="H53" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -3220,13 +3062,11 @@
         <v>10</v>
       </c>
       <c r="F54" t="s">
-        <v>15</v>
-      </c>
-      <c r="G54" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G54" t="s"/>
       <c r="H54" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -3246,13 +3086,11 @@
         <v>10</v>
       </c>
       <c r="F55" t="s">
-        <v>20</v>
-      </c>
-      <c r="G55" t="s">
-        <v>31</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G55" t="s"/>
       <c r="H55" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -3272,13 +3110,11 @@
         <v>10</v>
       </c>
       <c r="F56" t="s">
-        <v>15</v>
-      </c>
-      <c r="G56" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G56" t="s"/>
       <c r="H56" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -3298,13 +3134,11 @@
         <v>10</v>
       </c>
       <c r="F57" t="s">
-        <v>20</v>
-      </c>
-      <c r="G57" t="s">
-        <v>31</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G57" t="s"/>
       <c r="H57" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -3324,13 +3158,11 @@
         <v>10</v>
       </c>
       <c r="F58" t="s">
-        <v>15</v>
-      </c>
-      <c r="G58" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G58" t="s"/>
       <c r="H58" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -3350,13 +3182,11 @@
         <v>10</v>
       </c>
       <c r="F59" t="s">
-        <v>20</v>
-      </c>
-      <c r="G59" t="s">
-        <v>31</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G59" t="s"/>
       <c r="H59" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -3376,13 +3206,11 @@
         <v>10</v>
       </c>
       <c r="F60" t="s">
-        <v>20</v>
-      </c>
-      <c r="G60" t="s">
-        <v>31</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G60" t="s"/>
       <c r="H60" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -3402,13 +3230,11 @@
         <v>10</v>
       </c>
       <c r="F61" t="s">
-        <v>15</v>
-      </c>
-      <c r="G61" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G61" t="s"/>
       <c r="H61" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -3428,13 +3254,11 @@
         <v>10</v>
       </c>
       <c r="F62" t="s">
-        <v>20</v>
-      </c>
-      <c r="G62" t="s">
-        <v>31</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G62" t="s"/>
       <c r="H62" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -3454,13 +3278,11 @@
         <v>10</v>
       </c>
       <c r="F63" t="s">
-        <v>15</v>
-      </c>
-      <c r="G63" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G63" t="s"/>
       <c r="H63" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -3480,13 +3302,11 @@
         <v>10</v>
       </c>
       <c r="F64" t="s">
-        <v>20</v>
-      </c>
-      <c r="G64" t="s">
-        <v>31</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G64" t="s"/>
       <c r="H64" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -3506,13 +3326,11 @@
         <v>10</v>
       </c>
       <c r="F65" t="s">
-        <v>15</v>
-      </c>
-      <c r="G65" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G65" t="s"/>
       <c r="H65" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -3532,13 +3350,11 @@
         <v>10</v>
       </c>
       <c r="F66" t="s">
-        <v>20</v>
-      </c>
-      <c r="G66" t="s">
-        <v>31</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G66" t="s"/>
       <c r="H66" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -3558,13 +3374,11 @@
         <v>10</v>
       </c>
       <c r="F67" t="s">
-        <v>15</v>
-      </c>
-      <c r="G67" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G67" t="s"/>
       <c r="H67" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -3584,13 +3398,11 @@
         <v>10</v>
       </c>
       <c r="F68" t="s">
-        <v>20</v>
-      </c>
-      <c r="G68" t="s">
-        <v>31</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G68" t="s"/>
       <c r="H68" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -3610,13 +3422,11 @@
         <v>10</v>
       </c>
       <c r="F69" t="s">
-        <v>15</v>
-      </c>
-      <c r="G69" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G69" t="s"/>
       <c r="H69" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -3636,13 +3446,11 @@
         <v>10</v>
       </c>
       <c r="F70" t="s">
-        <v>20</v>
-      </c>
-      <c r="G70" t="s">
-        <v>31</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G70" t="s"/>
       <c r="H70" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -3662,13 +3470,11 @@
         <v>10</v>
       </c>
       <c r="F71" t="s">
-        <v>15</v>
-      </c>
-      <c r="G71" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G71" t="s"/>
       <c r="H71" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -3688,13 +3494,11 @@
         <v>10</v>
       </c>
       <c r="F72" t="s">
-        <v>20</v>
-      </c>
-      <c r="G72" t="s">
-        <v>31</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G72" t="s"/>
       <c r="H72" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -3714,13 +3518,11 @@
         <v>10</v>
       </c>
       <c r="F73" t="s">
-        <v>15</v>
-      </c>
-      <c r="G73" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G73" t="s"/>
       <c r="H73" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -3740,13 +3542,11 @@
         <v>10</v>
       </c>
       <c r="F74" t="s">
-        <v>20</v>
-      </c>
-      <c r="G74" t="s">
-        <v>31</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G74" t="s"/>
       <c r="H74" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -3766,13 +3566,11 @@
         <v>10</v>
       </c>
       <c r="F75" t="s">
-        <v>15</v>
-      </c>
-      <c r="G75" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G75" t="s"/>
       <c r="H75" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -3792,13 +3590,11 @@
         <v>10</v>
       </c>
       <c r="F76" t="s">
-        <v>20</v>
-      </c>
-      <c r="G76" t="s">
-        <v>31</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G76" t="s"/>
       <c r="H76" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -3818,13 +3614,11 @@
         <v>10</v>
       </c>
       <c r="F77" t="s">
-        <v>15</v>
-      </c>
-      <c r="G77" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G77" t="s"/>
       <c r="H77" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3844,13 +3638,11 @@
         <v>10</v>
       </c>
       <c r="F78" t="s">
-        <v>20</v>
-      </c>
-      <c r="G78" t="s">
-        <v>31</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G78" t="s"/>
       <c r="H78" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3870,13 +3662,11 @@
         <v>10</v>
       </c>
       <c r="F79" t="s">
-        <v>20</v>
-      </c>
-      <c r="G79" t="s">
-        <v>31</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G79" t="s"/>
       <c r="H79" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3896,13 +3686,11 @@
         <v>10</v>
       </c>
       <c r="F80" t="s">
-        <v>15</v>
-      </c>
-      <c r="G80" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G80" t="s"/>
       <c r="H80" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3922,13 +3710,11 @@
         <v>10</v>
       </c>
       <c r="F81" t="s">
-        <v>20</v>
-      </c>
-      <c r="G81" t="s">
-        <v>31</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G81" t="s"/>
       <c r="H81" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3948,13 +3734,11 @@
         <v>10</v>
       </c>
       <c r="F82" t="s">
-        <v>15</v>
-      </c>
-      <c r="G82" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G82" t="s"/>
       <c r="H82" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3974,13 +3758,11 @@
         <v>10</v>
       </c>
       <c r="F83" t="s">
-        <v>20</v>
-      </c>
-      <c r="G83" t="s">
-        <v>31</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G83" t="s"/>
       <c r="H83" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -4000,13 +3782,11 @@
         <v>10</v>
       </c>
       <c r="F84" t="s">
-        <v>15</v>
-      </c>
-      <c r="G84" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G84" t="s"/>
       <c r="H84" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -4026,13 +3806,11 @@
         <v>10</v>
       </c>
       <c r="F85" t="s">
-        <v>20</v>
-      </c>
-      <c r="G85" t="s">
-        <v>31</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G85" t="s"/>
       <c r="H85" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -4052,13 +3830,11 @@
         <v>10</v>
       </c>
       <c r="F86" t="s">
-        <v>15</v>
-      </c>
-      <c r="G86" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G86" t="s"/>
       <c r="H86" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -4078,13 +3854,11 @@
         <v>10</v>
       </c>
       <c r="F87" t="s">
-        <v>20</v>
-      </c>
-      <c r="G87" t="s">
-        <v>34</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G87" t="s"/>
       <c r="H87" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -4104,13 +3878,11 @@
         <v>10</v>
       </c>
       <c r="F88" t="s">
-        <v>20</v>
-      </c>
-      <c r="G88" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G88" t="s"/>
       <c r="H88" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -4130,13 +3902,11 @@
         <v>10</v>
       </c>
       <c r="F89" t="s">
-        <v>15</v>
-      </c>
-      <c r="G89" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G89" t="s"/>
       <c r="H89" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -4156,13 +3926,11 @@
         <v>10</v>
       </c>
       <c r="F90" t="s">
-        <v>20</v>
-      </c>
-      <c r="G90" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G90" t="s"/>
       <c r="H90" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -4182,13 +3950,11 @@
         <v>10</v>
       </c>
       <c r="F91" t="s">
-        <v>15</v>
-      </c>
-      <c r="G91" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G91" t="s"/>
       <c r="H91" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -4208,13 +3974,11 @@
         <v>10</v>
       </c>
       <c r="F92" t="s">
-        <v>20</v>
-      </c>
-      <c r="G92" t="s">
-        <v>31</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G92" t="s"/>
       <c r="H92" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -4234,13 +3998,11 @@
         <v>10</v>
       </c>
       <c r="F93" t="s">
-        <v>15</v>
-      </c>
-      <c r="G93" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G93" t="s"/>
       <c r="H93" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -4260,13 +4022,11 @@
         <v>10</v>
       </c>
       <c r="F94" t="s">
-        <v>20</v>
-      </c>
-      <c r="G94" t="s">
-        <v>31</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G94" t="s"/>
       <c r="H94" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -4286,13 +4046,11 @@
         <v>10</v>
       </c>
       <c r="F95" t="s">
-        <v>15</v>
-      </c>
-      <c r="G95" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G95" t="s"/>
       <c r="H95" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -4312,13 +4070,11 @@
         <v>10</v>
       </c>
       <c r="F96" t="s">
-        <v>20</v>
-      </c>
-      <c r="G96" t="s">
-        <v>34</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G96" t="s"/>
       <c r="H96" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -4338,13 +4094,11 @@
         <v>10</v>
       </c>
       <c r="F97" t="s">
-        <v>20</v>
-      </c>
-      <c r="G97" t="s">
-        <v>31</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G97" t="s"/>
       <c r="H97" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -4364,13 +4118,11 @@
         <v>10</v>
       </c>
       <c r="F98" t="s">
-        <v>15</v>
-      </c>
-      <c r="G98" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G98" t="s"/>
       <c r="H98" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -4390,13 +4142,11 @@
         <v>10</v>
       </c>
       <c r="F99" t="s">
-        <v>20</v>
-      </c>
-      <c r="G99" t="s">
-        <v>31</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G99" t="s"/>
       <c r="H99" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -4416,13 +4166,11 @@
         <v>10</v>
       </c>
       <c r="F100" t="s">
-        <v>15</v>
-      </c>
-      <c r="G100" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G100" t="s"/>
       <c r="H100" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -4442,13 +4190,11 @@
         <v>10</v>
       </c>
       <c r="F101" t="s">
-        <v>20</v>
-      </c>
-      <c r="G101" t="s">
-        <v>31</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G101" t="s"/>
       <c r="H101" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -4468,13 +4214,11 @@
         <v>10</v>
       </c>
       <c r="F102" t="s">
-        <v>20</v>
-      </c>
-      <c r="G102" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G102" t="s"/>
       <c r="H102" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -4494,13 +4238,11 @@
         <v>10</v>
       </c>
       <c r="F103" t="s">
-        <v>15</v>
-      </c>
-      <c r="G103" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G103" t="s"/>
       <c r="H103" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -4520,13 +4262,11 @@
         <v>10</v>
       </c>
       <c r="F104" t="s">
-        <v>36</v>
-      </c>
-      <c r="G104" t="s">
-        <v>37</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="G104" t="s"/>
       <c r="H104" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -4546,13 +4286,11 @@
         <v>10</v>
       </c>
       <c r="F105" t="s">
-        <v>115</v>
-      </c>
-      <c r="G105" t="s">
-        <v>116</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="G105" t="s"/>
       <c r="H105" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -4572,13 +4310,11 @@
         <v>10</v>
       </c>
       <c r="F106" t="s">
-        <v>20</v>
-      </c>
-      <c r="G106" t="s">
-        <v>31</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G106" t="s"/>
       <c r="H106" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -4598,13 +4334,11 @@
         <v>10</v>
       </c>
       <c r="F107" t="s">
-        <v>115</v>
-      </c>
-      <c r="G107" t="s">
-        <v>116</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="G107" t="s"/>
       <c r="H107" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -4624,13 +4358,11 @@
         <v>10</v>
       </c>
       <c r="F108" t="s">
-        <v>20</v>
-      </c>
-      <c r="G108" t="s">
-        <v>34</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G108" t="s"/>
       <c r="H108" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -4650,13 +4382,11 @@
         <v>10</v>
       </c>
       <c r="F109" t="s">
-        <v>115</v>
-      </c>
-      <c r="G109" t="s">
-        <v>116</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="G109" t="s"/>
       <c r="H109" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -4676,13 +4406,11 @@
         <v>10</v>
       </c>
       <c r="F110" t="s">
-        <v>20</v>
-      </c>
-      <c r="G110" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G110" t="s"/>
       <c r="H110" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -4702,13 +4430,11 @@
         <v>10</v>
       </c>
       <c r="F111" t="s">
-        <v>115</v>
-      </c>
-      <c r="G111" t="s">
+        <v>109</v>
+      </c>
+      <c r="G111" t="s"/>
+      <c r="H111" t="s">
         <v>116</v>
-      </c>
-      <c r="H111" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -4728,13 +4454,11 @@
         <v>10</v>
       </c>
       <c r="F112" t="s">
-        <v>20</v>
-      </c>
-      <c r="G112" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G112" t="s"/>
       <c r="H112" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -4754,13 +4478,11 @@
         <v>10</v>
       </c>
       <c r="F113" t="s">
-        <v>115</v>
-      </c>
-      <c r="G113" t="s">
-        <v>116</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="G113" t="s"/>
       <c r="H113" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -4780,13 +4502,11 @@
         <v>10</v>
       </c>
       <c r="F114" t="s">
-        <v>20</v>
-      </c>
-      <c r="G114" t="s">
-        <v>31</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G114" t="s"/>
       <c r="H114" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -4806,13 +4526,11 @@
         <v>10</v>
       </c>
       <c r="F115" t="s">
-        <v>115</v>
-      </c>
-      <c r="G115" t="s">
-        <v>116</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="G115" t="s"/>
       <c r="H115" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -4832,13 +4550,11 @@
         <v>10</v>
       </c>
       <c r="F116" t="s">
-        <v>20</v>
-      </c>
-      <c r="G116" t="s">
-        <v>34</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G116" t="s"/>
       <c r="H116" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -4858,13 +4574,11 @@
         <v>10</v>
       </c>
       <c r="F117" t="s">
-        <v>115</v>
-      </c>
-      <c r="G117" t="s">
-        <v>116</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="G117" t="s"/>
       <c r="H117" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -4884,13 +4598,11 @@
         <v>10</v>
       </c>
       <c r="F118" t="s">
-        <v>36</v>
-      </c>
-      <c r="G118" t="s">
-        <v>37</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="G118" t="s"/>
       <c r="H118" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -4910,13 +4622,11 @@
         <v>10</v>
       </c>
       <c r="F119" t="s">
-        <v>131</v>
-      </c>
-      <c r="G119" t="s">
-        <v>132</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="G119" t="s"/>
       <c r="H119" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -4936,13 +4646,11 @@
         <v>10</v>
       </c>
       <c r="F120" t="s">
-        <v>20</v>
-      </c>
-      <c r="G120" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G120" t="s"/>
       <c r="H120" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -4962,13 +4670,11 @@
         <v>10</v>
       </c>
       <c r="F121" t="s">
-        <v>131</v>
-      </c>
-      <c r="G121" t="s">
-        <v>132</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="G121" t="s"/>
       <c r="H121" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -4988,13 +4694,11 @@
         <v>10</v>
       </c>
       <c r="F122" t="s">
-        <v>20</v>
-      </c>
-      <c r="G122" t="s">
-        <v>31</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G122" t="s"/>
       <c r="H122" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -5014,13 +4718,11 @@
         <v>10</v>
       </c>
       <c r="F123" t="s">
-        <v>20</v>
-      </c>
-      <c r="G123" t="s">
-        <v>31</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G123" t="s"/>
       <c r="H123" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -5040,13 +4742,11 @@
         <v>10</v>
       </c>
       <c r="F124" t="s">
-        <v>131</v>
-      </c>
-      <c r="G124" t="s">
-        <v>132</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="G124" t="s"/>
       <c r="H124" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -5066,13 +4766,11 @@
         <v>10</v>
       </c>
       <c r="F125" t="s">
-        <v>20</v>
-      </c>
-      <c r="G125" t="s">
-        <v>31</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G125" t="s"/>
       <c r="H125" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -5092,13 +4790,11 @@
         <v>10</v>
       </c>
       <c r="F126" t="s">
-        <v>131</v>
-      </c>
-      <c r="G126" t="s">
+        <v>124</v>
+      </c>
+      <c r="G126" t="s"/>
+      <c r="H126" t="s">
         <v>132</v>
-      </c>
-      <c r="H126" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -5118,13 +4814,11 @@
         <v>10</v>
       </c>
       <c r="F127" t="s">
-        <v>20</v>
-      </c>
-      <c r="G127" t="s">
-        <v>31</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G127" t="s"/>
       <c r="H127" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -5144,13 +4838,11 @@
         <v>10</v>
       </c>
       <c r="F128" t="s">
-        <v>131</v>
-      </c>
-      <c r="G128" t="s">
-        <v>132</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="G128" t="s"/>
       <c r="H128" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -5170,13 +4862,11 @@
         <v>10</v>
       </c>
       <c r="F129" t="s">
-        <v>20</v>
-      </c>
-      <c r="G129" t="s">
-        <v>31</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G129" t="s"/>
       <c r="H129" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -5196,13 +4886,11 @@
         <v>10</v>
       </c>
       <c r="F130" t="s">
-        <v>131</v>
-      </c>
-      <c r="G130" t="s">
-        <v>132</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="G130" t="s"/>
       <c r="H130" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -5222,13 +4910,11 @@
         <v>10</v>
       </c>
       <c r="F131" t="s">
-        <v>20</v>
-      </c>
-      <c r="G131" t="s">
-        <v>31</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G131" t="s"/>
       <c r="H131" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -5248,13 +4934,11 @@
         <v>10</v>
       </c>
       <c r="F132" t="s">
-        <v>131</v>
-      </c>
-      <c r="G132" t="s">
-        <v>132</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="G132" t="s"/>
       <c r="H132" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -5274,13 +4958,11 @@
         <v>10</v>
       </c>
       <c r="F133" t="s">
-        <v>20</v>
-      </c>
-      <c r="G133" t="s">
-        <v>31</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G133" t="s"/>
       <c r="H133" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -5300,13 +4982,11 @@
         <v>10</v>
       </c>
       <c r="F134" t="s">
-        <v>131</v>
-      </c>
-      <c r="G134" t="s">
-        <v>132</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="G134" t="s"/>
       <c r="H134" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -5326,13 +5006,11 @@
         <v>10</v>
       </c>
       <c r="F135" t="s">
-        <v>20</v>
-      </c>
-      <c r="G135" t="s">
-        <v>31</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G135" t="s"/>
       <c r="H135" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -5352,13 +5030,11 @@
         <v>10</v>
       </c>
       <c r="F136" t="s">
-        <v>131</v>
-      </c>
-      <c r="G136" t="s">
-        <v>132</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="G136" t="s"/>
       <c r="H136" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -5378,13 +5054,11 @@
         <v>10</v>
       </c>
       <c r="F137" t="s">
-        <v>36</v>
-      </c>
-      <c r="G137" t="s">
-        <v>37</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="G137" t="s"/>
       <c r="H137" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -5404,13 +5078,11 @@
         <v>10</v>
       </c>
       <c r="F138" t="s">
-        <v>131</v>
-      </c>
-      <c r="G138" t="s">
-        <v>132</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="G138" t="s"/>
       <c r="H138" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -5430,13 +5102,11 @@
         <v>10</v>
       </c>
       <c r="F139" t="s">
-        <v>36</v>
-      </c>
-      <c r="G139" t="s">
-        <v>37</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="G139" t="s"/>
       <c r="H139" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -5456,13 +5126,11 @@
         <v>10</v>
       </c>
       <c r="F140" t="s">
-        <v>154</v>
-      </c>
-      <c r="G140" t="s">
-        <v>155</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="G140" t="s"/>
       <c r="H140" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -5482,13 +5150,11 @@
         <v>10</v>
       </c>
       <c r="F141" t="s">
-        <v>20</v>
-      </c>
-      <c r="G141" t="s">
-        <v>31</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G141" t="s"/>
       <c r="H141" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -5508,13 +5174,11 @@
         <v>10</v>
       </c>
       <c r="F142" t="s">
-        <v>154</v>
-      </c>
-      <c r="G142" t="s">
-        <v>155</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="G142" t="s"/>
       <c r="H142" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -5534,13 +5198,11 @@
         <v>10</v>
       </c>
       <c r="F143" t="s">
-        <v>154</v>
-      </c>
-      <c r="G143" t="s">
-        <v>155</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="G143" t="s"/>
       <c r="H143" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -5560,13 +5222,11 @@
         <v>10</v>
       </c>
       <c r="F144" t="s">
-        <v>20</v>
-      </c>
-      <c r="G144" t="s">
-        <v>31</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G144" t="s"/>
       <c r="H144" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -5586,13 +5246,11 @@
         <v>10</v>
       </c>
       <c r="F145" t="s">
-        <v>154</v>
-      </c>
-      <c r="G145" t="s">
-        <v>155</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="G145" t="s"/>
       <c r="H145" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -5612,13 +5270,11 @@
         <v>10</v>
       </c>
       <c r="F146" t="s">
-        <v>20</v>
-      </c>
-      <c r="G146" t="s">
-        <v>31</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G146" t="s"/>
       <c r="H146" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -5638,13 +5294,11 @@
         <v>10</v>
       </c>
       <c r="F147" t="s">
+        <v>146</v>
+      </c>
+      <c r="G147" t="s"/>
+      <c r="H147" t="s">
         <v>154</v>
-      </c>
-      <c r="G147" t="s">
-        <v>155</v>
-      </c>
-      <c r="H147" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -5664,13 +5318,11 @@
         <v>10</v>
       </c>
       <c r="F148" t="s">
-        <v>154</v>
-      </c>
-      <c r="G148" t="s">
+        <v>146</v>
+      </c>
+      <c r="G148" t="s"/>
+      <c r="H148" t="s">
         <v>155</v>
-      </c>
-      <c r="H148" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -5690,13 +5342,11 @@
         <v>10</v>
       </c>
       <c r="F149" t="s">
-        <v>20</v>
-      </c>
-      <c r="G149" t="s">
-        <v>31</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G149" t="s"/>
       <c r="H149" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -5716,13 +5366,11 @@
         <v>10</v>
       </c>
       <c r="F150" t="s">
-        <v>154</v>
-      </c>
-      <c r="G150" t="s">
-        <v>155</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="G150" t="s"/>
       <c r="H150" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -5742,13 +5390,11 @@
         <v>10</v>
       </c>
       <c r="F151" t="s">
-        <v>20</v>
-      </c>
-      <c r="G151" t="s">
-        <v>31</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G151" t="s"/>
       <c r="H151" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -5768,13 +5414,11 @@
         <v>10</v>
       </c>
       <c r="F152" t="s">
-        <v>154</v>
-      </c>
-      <c r="G152" t="s">
-        <v>155</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="G152" t="s"/>
       <c r="H152" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -5794,13 +5438,11 @@
         <v>10</v>
       </c>
       <c r="F153" t="s">
-        <v>20</v>
-      </c>
-      <c r="G153" t="s">
-        <v>31</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G153" t="s"/>
       <c r="H153" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -5820,13 +5462,11 @@
         <v>10</v>
       </c>
       <c r="F154" t="s">
-        <v>154</v>
-      </c>
-      <c r="G154" t="s">
-        <v>155</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="G154" t="s"/>
       <c r="H154" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -5846,13 +5486,11 @@
         <v>10</v>
       </c>
       <c r="F155" t="s">
-        <v>20</v>
-      </c>
-      <c r="G155" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G155" t="s"/>
       <c r="H155" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -5872,13 +5510,11 @@
         <v>10</v>
       </c>
       <c r="F156" t="s">
-        <v>154</v>
-      </c>
-      <c r="G156" t="s">
-        <v>155</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="G156" t="s"/>
       <c r="H156" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -5898,13 +5534,11 @@
         <v>10</v>
       </c>
       <c r="F157" t="s">
-        <v>20</v>
-      </c>
-      <c r="G157" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G157" t="s"/>
       <c r="H157" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -5924,13 +5558,11 @@
         <v>10</v>
       </c>
       <c r="F158" t="s">
-        <v>154</v>
-      </c>
-      <c r="G158" t="s">
-        <v>155</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="G158" t="s"/>
       <c r="H158" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -5950,13 +5582,11 @@
         <v>10</v>
       </c>
       <c r="F159" t="s">
-        <v>20</v>
-      </c>
-      <c r="G159" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G159" t="s"/>
       <c r="H159" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -5976,13 +5606,11 @@
         <v>10</v>
       </c>
       <c r="F160" t="s">
-        <v>154</v>
-      </c>
-      <c r="G160" t="s">
-        <v>155</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="G160" t="s"/>
       <c r="H160" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -6002,13 +5630,11 @@
         <v>10</v>
       </c>
       <c r="F161" t="s">
-        <v>20</v>
-      </c>
-      <c r="G161" t="s">
-        <v>31</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G161" t="s"/>
       <c r="H161" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -6028,13 +5654,11 @@
         <v>10</v>
       </c>
       <c r="F162" t="s">
-        <v>36</v>
-      </c>
-      <c r="G162" t="s">
-        <v>37</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="G162" t="s"/>
       <c r="H162" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -6054,13 +5678,11 @@
         <v>10</v>
       </c>
       <c r="F163" t="s">
-        <v>177</v>
-      </c>
-      <c r="G163" t="s">
-        <v>178</v>
-      </c>
+        <v>168</v>
+      </c>
+      <c r="G163" t="s"/>
       <c r="H163" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -6080,13 +5702,11 @@
         <v>10</v>
       </c>
       <c r="F164" t="s">
-        <v>20</v>
-      </c>
-      <c r="G164" t="s">
-        <v>34</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G164" t="s"/>
       <c r="H164" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -6106,13 +5726,11 @@
         <v>10</v>
       </c>
       <c r="F165" t="s">
-        <v>177</v>
-      </c>
-      <c r="G165" t="s">
-        <v>178</v>
-      </c>
+        <v>168</v>
+      </c>
+      <c r="G165" t="s"/>
       <c r="H165" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -6132,13 +5750,11 @@
         <v>10</v>
       </c>
       <c r="F166" t="s">
-        <v>20</v>
-      </c>
-      <c r="G166" t="s">
-        <v>34</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G166" t="s"/>
       <c r="H166" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -6158,13 +5774,11 @@
         <v>10</v>
       </c>
       <c r="F167" t="s">
-        <v>177</v>
-      </c>
-      <c r="G167" t="s">
-        <v>178</v>
-      </c>
+        <v>168</v>
+      </c>
+      <c r="G167" t="s"/>
       <c r="H167" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -6184,13 +5798,11 @@
         <v>10</v>
       </c>
       <c r="F168" t="s">
-        <v>20</v>
-      </c>
-      <c r="G168" t="s">
-        <v>34</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G168" t="s"/>
       <c r="H168" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -6210,13 +5822,11 @@
         <v>10</v>
       </c>
       <c r="F169" t="s">
-        <v>177</v>
-      </c>
-      <c r="G169" t="s">
-        <v>178</v>
-      </c>
+        <v>168</v>
+      </c>
+      <c r="G169" t="s"/>
       <c r="H169" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -6236,13 +5846,11 @@
         <v>10</v>
       </c>
       <c r="F170" t="s">
-        <v>20</v>
-      </c>
-      <c r="G170" t="s">
-        <v>34</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G170" t="s"/>
       <c r="H170" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -6262,13 +5870,11 @@
         <v>10</v>
       </c>
       <c r="F171" t="s">
+        <v>168</v>
+      </c>
+      <c r="G171" t="s"/>
+      <c r="H171" t="s">
         <v>177</v>
-      </c>
-      <c r="G171" t="s">
-        <v>178</v>
-      </c>
-      <c r="H171" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -6288,13 +5894,11 @@
         <v>10</v>
       </c>
       <c r="F172" t="s">
-        <v>20</v>
-      </c>
-      <c r="G172" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G172" t="s"/>
       <c r="H172" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -6314,13 +5918,11 @@
         <v>10</v>
       </c>
       <c r="F173" t="s">
-        <v>177</v>
-      </c>
-      <c r="G173" t="s">
-        <v>178</v>
-      </c>
+        <v>168</v>
+      </c>
+      <c r="G173" t="s"/>
       <c r="H173" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -6340,13 +5942,11 @@
         <v>10</v>
       </c>
       <c r="F174" t="s">
-        <v>20</v>
-      </c>
-      <c r="G174" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G174" t="s"/>
       <c r="H174" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -6366,13 +5966,11 @@
         <v>10</v>
       </c>
       <c r="F175" t="s">
-        <v>177</v>
-      </c>
-      <c r="G175" t="s">
-        <v>178</v>
-      </c>
+        <v>168</v>
+      </c>
+      <c r="G175" t="s"/>
       <c r="H175" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -6392,13 +5990,11 @@
         <v>10</v>
       </c>
       <c r="F176" t="s">
-        <v>20</v>
-      </c>
-      <c r="G176" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G176" t="s"/>
       <c r="H176" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -6418,13 +6014,11 @@
         <v>10</v>
       </c>
       <c r="F177" t="s">
-        <v>177</v>
-      </c>
-      <c r="G177" t="s">
-        <v>178</v>
-      </c>
+        <v>168</v>
+      </c>
+      <c r="G177" t="s"/>
       <c r="H177" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -6444,13 +6038,11 @@
         <v>10</v>
       </c>
       <c r="F178" t="s">
-        <v>20</v>
-      </c>
-      <c r="G178" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G178" t="s"/>
       <c r="H178" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -6470,13 +6062,11 @@
         <v>10</v>
       </c>
       <c r="F179" t="s">
-        <v>177</v>
-      </c>
-      <c r="G179" t="s">
-        <v>178</v>
-      </c>
+        <v>168</v>
+      </c>
+      <c r="G179" t="s"/>
       <c r="H179" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -6496,13 +6086,11 @@
         <v>10</v>
       </c>
       <c r="F180" t="s">
-        <v>20</v>
-      </c>
-      <c r="G180" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G180" t="s"/>
       <c r="H180" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -6522,13 +6110,11 @@
         <v>10</v>
       </c>
       <c r="F181" t="s">
-        <v>177</v>
-      </c>
-      <c r="G181" t="s">
-        <v>178</v>
-      </c>
+        <v>168</v>
+      </c>
+      <c r="G181" t="s"/>
       <c r="H181" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -6548,13 +6134,11 @@
         <v>10</v>
       </c>
       <c r="F182" t="s">
-        <v>20</v>
-      </c>
-      <c r="G182" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G182" t="s"/>
       <c r="H182" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -6574,13 +6158,11 @@
         <v>10</v>
       </c>
       <c r="F183" t="s">
-        <v>177</v>
-      </c>
-      <c r="G183" t="s">
-        <v>178</v>
-      </c>
+        <v>168</v>
+      </c>
+      <c r="G183" t="s"/>
       <c r="H183" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -6600,13 +6182,11 @@
         <v>10</v>
       </c>
       <c r="F184" t="s">
-        <v>20</v>
-      </c>
-      <c r="G184" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G184" t="s"/>
       <c r="H184" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -6626,13 +6206,11 @@
         <v>10</v>
       </c>
       <c r="F185" t="s">
-        <v>177</v>
-      </c>
-      <c r="G185" t="s">
-        <v>178</v>
-      </c>
+        <v>168</v>
+      </c>
+      <c r="G185" t="s"/>
       <c r="H185" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -6652,13 +6230,11 @@
         <v>10</v>
       </c>
       <c r="F186" t="s">
-        <v>20</v>
-      </c>
-      <c r="G186" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G186" t="s"/>
       <c r="H186" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -6678,13 +6254,11 @@
         <v>10</v>
       </c>
       <c r="F187" t="s">
-        <v>20</v>
-      </c>
-      <c r="G187" t="s">
-        <v>34</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G187" t="s"/>
       <c r="H187" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -6704,13 +6278,11 @@
         <v>10</v>
       </c>
       <c r="F188" t="s">
-        <v>36</v>
-      </c>
-      <c r="G188" t="s">
-        <v>37</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="G188" t="s"/>
       <c r="H188" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -6730,13 +6302,11 @@
         <v>10</v>
       </c>
       <c r="F189" t="s">
-        <v>20</v>
-      </c>
-      <c r="G189" t="s">
-        <v>34</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G189" t="s"/>
       <c r="H189" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -6756,13 +6326,11 @@
         <v>10</v>
       </c>
       <c r="F190" t="s">
-        <v>36</v>
-      </c>
-      <c r="G190" t="s">
-        <v>37</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="G190" t="s"/>
       <c r="H190" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -6782,13 +6350,11 @@
         <v>10</v>
       </c>
       <c r="F191" t="s">
-        <v>205</v>
-      </c>
-      <c r="G191" t="s">
-        <v>206</v>
-      </c>
+        <v>195</v>
+      </c>
+      <c r="G191" t="s"/>
       <c r="H191" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -6808,13 +6374,11 @@
         <v>10</v>
       </c>
       <c r="F192" t="s">
-        <v>20</v>
-      </c>
-      <c r="G192" t="s">
-        <v>31</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G192" t="s"/>
       <c r="H192" t="s">
-        <v>208</v>
+        <v>197</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -6834,13 +6398,11 @@
         <v>10</v>
       </c>
       <c r="F193" t="s">
-        <v>205</v>
-      </c>
-      <c r="G193" t="s">
-        <v>206</v>
-      </c>
+        <v>195</v>
+      </c>
+      <c r="G193" t="s"/>
       <c r="H193" t="s">
-        <v>209</v>
+        <v>198</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -6860,13 +6422,11 @@
         <v>10</v>
       </c>
       <c r="F194" t="s">
-        <v>20</v>
-      </c>
-      <c r="G194" t="s">
-        <v>31</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G194" t="s"/>
       <c r="H194" t="s">
-        <v>210</v>
+        <v>199</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -6886,13 +6446,11 @@
         <v>10</v>
       </c>
       <c r="F195" t="s">
-        <v>205</v>
-      </c>
-      <c r="G195" t="s">
-        <v>206</v>
-      </c>
+        <v>195</v>
+      </c>
+      <c r="G195" t="s"/>
       <c r="H195" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -6912,13 +6470,11 @@
         <v>10</v>
       </c>
       <c r="F196" t="s">
-        <v>20</v>
-      </c>
-      <c r="G196" t="s">
-        <v>31</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G196" t="s"/>
       <c r="H196" t="s">
-        <v>212</v>
+        <v>201</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -6938,13 +6494,11 @@
         <v>10</v>
       </c>
       <c r="F197" t="s">
-        <v>205</v>
-      </c>
-      <c r="G197" t="s">
-        <v>206</v>
-      </c>
+        <v>195</v>
+      </c>
+      <c r="G197" t="s"/>
       <c r="H197" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -6964,13 +6518,11 @@
         <v>10</v>
       </c>
       <c r="F198" t="s">
-        <v>20</v>
-      </c>
-      <c r="G198" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G198" t="s"/>
       <c r="H198" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -6990,13 +6542,11 @@
         <v>10</v>
       </c>
       <c r="F199" t="s">
-        <v>205</v>
-      </c>
-      <c r="G199" t="s">
-        <v>206</v>
-      </c>
+        <v>195</v>
+      </c>
+      <c r="G199" t="s"/>
       <c r="H199" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -7016,13 +6566,11 @@
         <v>10</v>
       </c>
       <c r="F200" t="s">
-        <v>20</v>
-      </c>
-      <c r="G200" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G200" t="s"/>
       <c r="H200" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -7042,13 +6590,11 @@
         <v>10</v>
       </c>
       <c r="F201" t="s">
-        <v>205</v>
-      </c>
-      <c r="G201" t="s">
+        <v>195</v>
+      </c>
+      <c r="G201" t="s"/>
+      <c r="H201" t="s">
         <v>206</v>
-      </c>
-      <c r="H201" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -7068,13 +6614,11 @@
         <v>10</v>
       </c>
       <c r="F202" t="s">
-        <v>20</v>
-      </c>
-      <c r="G202" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G202" t="s"/>
       <c r="H202" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -7094,13 +6638,11 @@
         <v>10</v>
       </c>
       <c r="F203" t="s">
-        <v>205</v>
-      </c>
-      <c r="G203" t="s">
-        <v>206</v>
-      </c>
+        <v>195</v>
+      </c>
+      <c r="G203" t="s"/>
       <c r="H203" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -7120,13 +6662,11 @@
         <v>10</v>
       </c>
       <c r="F204" t="s">
-        <v>20</v>
-      </c>
-      <c r="G204" t="s">
-        <v>34</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G204" t="s"/>
       <c r="H204" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -7146,13 +6686,11 @@
         <v>10</v>
       </c>
       <c r="F205" t="s">
-        <v>205</v>
-      </c>
-      <c r="G205" t="s">
-        <v>206</v>
-      </c>
+        <v>195</v>
+      </c>
+      <c r="G205" t="s"/>
       <c r="H205" t="s">
-        <v>221</v>
+        <v>210</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -7172,13 +6710,11 @@
         <v>10</v>
       </c>
       <c r="F206" t="s">
-        <v>20</v>
-      </c>
-      <c r="G206" t="s">
-        <v>34</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G206" t="s"/>
       <c r="H206" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -7198,13 +6734,11 @@
         <v>10</v>
       </c>
       <c r="F207" t="s">
-        <v>205</v>
-      </c>
-      <c r="G207" t="s">
-        <v>206</v>
-      </c>
+        <v>195</v>
+      </c>
+      <c r="G207" t="s"/>
       <c r="H207" t="s">
-        <v>223</v>
+        <v>212</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -7224,13 +6758,11 @@
         <v>10</v>
       </c>
       <c r="F208" t="s">
-        <v>20</v>
-      </c>
-      <c r="G208" t="s">
-        <v>34</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G208" t="s"/>
       <c r="H208" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -7250,13 +6782,11 @@
         <v>10</v>
       </c>
       <c r="F209" t="s">
-        <v>205</v>
-      </c>
-      <c r="G209" t="s">
-        <v>206</v>
-      </c>
+        <v>195</v>
+      </c>
+      <c r="G209" t="s"/>
       <c r="H209" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -7276,13 +6806,11 @@
         <v>10</v>
       </c>
       <c r="F210" t="s">
-        <v>20</v>
-      </c>
-      <c r="G210" t="s">
-        <v>34</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G210" t="s"/>
       <c r="H210" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -7302,13 +6830,11 @@
         <v>10</v>
       </c>
       <c r="F211" t="s">
-        <v>205</v>
-      </c>
-      <c r="G211" t="s">
-        <v>206</v>
-      </c>
+        <v>195</v>
+      </c>
+      <c r="G211" t="s"/>
       <c r="H211" t="s">
-        <v>227</v>
+        <v>216</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -7328,13 +6854,11 @@
         <v>10</v>
       </c>
       <c r="F212" t="s">
-        <v>20</v>
-      </c>
-      <c r="G212" t="s">
-        <v>34</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G212" t="s"/>
       <c r="H212" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -7354,13 +6878,11 @@
         <v>10</v>
       </c>
       <c r="F213" t="s">
-        <v>205</v>
-      </c>
-      <c r="G213" t="s">
-        <v>206</v>
-      </c>
+        <v>195</v>
+      </c>
+      <c r="G213" t="s"/>
       <c r="H213" t="s">
-        <v>229</v>
+        <v>218</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -7380,13 +6902,11 @@
         <v>10</v>
       </c>
       <c r="F214" t="s">
-        <v>36</v>
-      </c>
-      <c r="G214" t="s">
-        <v>37</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="G214" t="s"/>
       <c r="H214" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -7406,13 +6926,11 @@
         <v>10</v>
       </c>
       <c r="F215" t="s">
-        <v>231</v>
-      </c>
-      <c r="G215" t="s">
-        <v>232</v>
-      </c>
+        <v>220</v>
+      </c>
+      <c r="G215" t="s"/>
       <c r="H215" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -7432,13 +6950,11 @@
         <v>10</v>
       </c>
       <c r="F216" t="s">
-        <v>20</v>
-      </c>
-      <c r="G216" t="s">
-        <v>34</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G216" t="s"/>
       <c r="H216" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -7458,13 +6974,11 @@
         <v>10</v>
       </c>
       <c r="F217" t="s">
-        <v>231</v>
-      </c>
-      <c r="G217" t="s">
-        <v>232</v>
-      </c>
+        <v>220</v>
+      </c>
+      <c r="G217" t="s"/>
       <c r="H217" t="s">
-        <v>235</v>
+        <v>223</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -7484,13 +6998,11 @@
         <v>10</v>
       </c>
       <c r="F218" t="s">
-        <v>20</v>
-      </c>
-      <c r="G218" t="s">
-        <v>34</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G218" t="s"/>
       <c r="H218" t="s">
-        <v>236</v>
+        <v>224</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -7510,13 +7022,11 @@
         <v>10</v>
       </c>
       <c r="F219" t="s">
-        <v>231</v>
-      </c>
-      <c r="G219" t="s">
-        <v>232</v>
-      </c>
+        <v>220</v>
+      </c>
+      <c r="G219" t="s"/>
       <c r="H219" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -7536,13 +7046,11 @@
         <v>10</v>
       </c>
       <c r="F220" t="s">
-        <v>231</v>
-      </c>
-      <c r="G220" t="s">
-        <v>232</v>
-      </c>
+        <v>220</v>
+      </c>
+      <c r="G220" t="s"/>
       <c r="H220" t="s">
-        <v>238</v>
+        <v>226</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -7562,13 +7070,11 @@
         <v>10</v>
       </c>
       <c r="F221" t="s">
-        <v>231</v>
-      </c>
-      <c r="G221" t="s">
-        <v>232</v>
-      </c>
+        <v>220</v>
+      </c>
+      <c r="G221" t="s"/>
       <c r="H221" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -7588,13 +7094,11 @@
         <v>10</v>
       </c>
       <c r="F222" t="s">
-        <v>20</v>
-      </c>
-      <c r="G222" t="s">
-        <v>34</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G222" t="s"/>
       <c r="H222" t="s">
-        <v>240</v>
+        <v>228</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -7614,13 +7118,11 @@
         <v>10</v>
       </c>
       <c r="F223" t="s">
-        <v>231</v>
-      </c>
-      <c r="G223" t="s">
-        <v>232</v>
-      </c>
+        <v>220</v>
+      </c>
+      <c r="G223" t="s"/>
       <c r="H223" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -7640,13 +7142,11 @@
         <v>10</v>
       </c>
       <c r="F224" t="s">
-        <v>20</v>
-      </c>
-      <c r="G224" t="s">
-        <v>34</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G224" t="s"/>
       <c r="H224" t="s">
-        <v>242</v>
+        <v>230</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -7666,13 +7166,11 @@
         <v>10</v>
       </c>
       <c r="F225" t="s">
+        <v>220</v>
+      </c>
+      <c r="G225" t="s"/>
+      <c r="H225" t="s">
         <v>231</v>
-      </c>
-      <c r="G225" t="s">
-        <v>232</v>
-      </c>
-      <c r="H225" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -7692,13 +7190,11 @@
         <v>10</v>
       </c>
       <c r="F226" t="s">
-        <v>20</v>
-      </c>
-      <c r="G226" t="s">
-        <v>34</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G226" t="s"/>
       <c r="H226" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -7718,13 +7214,11 @@
         <v>10</v>
       </c>
       <c r="F227" t="s">
-        <v>231</v>
-      </c>
-      <c r="G227" t="s">
+        <v>220</v>
+      </c>
+      <c r="G227" t="s"/>
+      <c r="H227" t="s">
         <v>232</v>
-      </c>
-      <c r="H227" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -7744,13 +7238,11 @@
         <v>10</v>
       </c>
       <c r="F228" t="s">
-        <v>20</v>
-      </c>
-      <c r="G228" t="s">
-        <v>34</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G228" t="s"/>
       <c r="H228" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -7770,13 +7262,11 @@
         <v>10</v>
       </c>
       <c r="F229" t="s">
-        <v>231</v>
-      </c>
-      <c r="G229" t="s">
-        <v>232</v>
-      </c>
+        <v>220</v>
+      </c>
+      <c r="G229" t="s"/>
       <c r="H229" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -7796,13 +7286,11 @@
         <v>10</v>
       </c>
       <c r="F230" t="s">
-        <v>20</v>
-      </c>
-      <c r="G230" t="s">
-        <v>34</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G230" t="s"/>
       <c r="H230" t="s">
-        <v>247</v>
+        <v>235</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -7822,13 +7310,11 @@
         <v>10</v>
       </c>
       <c r="F231" t="s">
-        <v>231</v>
-      </c>
-      <c r="G231" t="s">
-        <v>232</v>
-      </c>
+        <v>220</v>
+      </c>
+      <c r="G231" t="s"/>
       <c r="H231" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -7848,13 +7334,11 @@
         <v>10</v>
       </c>
       <c r="F232" t="s">
-        <v>20</v>
-      </c>
-      <c r="G232" t="s">
-        <v>31</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G232" t="s"/>
       <c r="H232" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -7874,13 +7358,11 @@
         <v>10</v>
       </c>
       <c r="F233" t="s">
-        <v>231</v>
-      </c>
-      <c r="G233" t="s">
-        <v>232</v>
-      </c>
+        <v>220</v>
+      </c>
+      <c r="G233" t="s"/>
       <c r="H233" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -7900,13 +7382,11 @@
         <v>10</v>
       </c>
       <c r="F234" t="s">
-        <v>20</v>
-      </c>
-      <c r="G234" t="s">
-        <v>31</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G234" t="s"/>
       <c r="H234" t="s">
-        <v>250</v>
+        <v>238</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -7926,13 +7406,11 @@
         <v>10</v>
       </c>
       <c r="F235" t="s">
-        <v>231</v>
-      </c>
-      <c r="G235" t="s">
-        <v>232</v>
-      </c>
+        <v>220</v>
+      </c>
+      <c r="G235" t="s"/>
       <c r="H235" t="s">
-        <v>251</v>
+        <v>239</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -7952,13 +7430,11 @@
         <v>10</v>
       </c>
       <c r="F236" t="s">
-        <v>20</v>
-      </c>
-      <c r="G236" t="s">
-        <v>31</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G236" t="s"/>
       <c r="H236" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -7978,13 +7454,11 @@
         <v>10</v>
       </c>
       <c r="F237" t="s">
-        <v>231</v>
-      </c>
-      <c r="G237" t="s">
-        <v>232</v>
-      </c>
+        <v>220</v>
+      </c>
+      <c r="G237" t="s"/>
       <c r="H237" t="s">
-        <v>252</v>
+        <v>240</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -8004,13 +7478,11 @@
         <v>10</v>
       </c>
       <c r="F238" t="s">
-        <v>20</v>
-      </c>
-      <c r="G238" t="s">
-        <v>31</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G238" t="s"/>
       <c r="H238" t="s">
-        <v>253</v>
+        <v>241</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -8030,13 +7502,11 @@
         <v>10</v>
       </c>
       <c r="F239" t="s">
-        <v>20</v>
-      </c>
-      <c r="G239" t="s">
-        <v>31</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G239" t="s"/>
       <c r="H239" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -8056,13 +7526,11 @@
         <v>10</v>
       </c>
       <c r="F240" t="s">
-        <v>231</v>
-      </c>
-      <c r="G240" t="s">
-        <v>232</v>
-      </c>
+        <v>220</v>
+      </c>
+      <c r="G240" t="s"/>
       <c r="H240" t="s">
-        <v>255</v>
+        <v>243</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -8082,13 +7550,11 @@
         <v>10</v>
       </c>
       <c r="F241" t="s">
-        <v>20</v>
-      </c>
-      <c r="G241" t="s">
-        <v>31</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G241" t="s"/>
       <c r="H241" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -8108,13 +7574,11 @@
         <v>10</v>
       </c>
       <c r="F242" t="s">
-        <v>231</v>
-      </c>
-      <c r="G242" t="s">
-        <v>232</v>
-      </c>
+        <v>220</v>
+      </c>
+      <c r="G242" t="s"/>
       <c r="H242" t="s">
-        <v>257</v>
+        <v>245</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -8134,13 +7598,11 @@
         <v>10</v>
       </c>
       <c r="F243" t="s">
-        <v>20</v>
-      </c>
-      <c r="G243" t="s">
-        <v>31</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G243" t="s"/>
       <c r="H243" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -8160,13 +7622,11 @@
         <v>10</v>
       </c>
       <c r="F244" t="s">
-        <v>231</v>
-      </c>
-      <c r="G244" t="s">
-        <v>232</v>
-      </c>
+        <v>220</v>
+      </c>
+      <c r="G244" t="s"/>
       <c r="H244" t="s">
-        <v>257</v>
+        <v>245</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -8186,13 +7646,11 @@
         <v>10</v>
       </c>
       <c r="F245" t="s">
-        <v>231</v>
-      </c>
-      <c r="G245" t="s">
-        <v>232</v>
-      </c>
+        <v>220</v>
+      </c>
+      <c r="G245" t="s"/>
       <c r="H245" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -8212,13 +7670,11 @@
         <v>10</v>
       </c>
       <c r="F246" t="s">
-        <v>20</v>
-      </c>
-      <c r="G246" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G246" t="s"/>
       <c r="H246" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -8238,13 +7694,11 @@
         <v>10</v>
       </c>
       <c r="F247" t="s">
-        <v>231</v>
-      </c>
-      <c r="G247" t="s">
-        <v>232</v>
-      </c>
+        <v>220</v>
+      </c>
+      <c r="G247" t="s"/>
       <c r="H247" t="s">
-        <v>257</v>
+        <v>245</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -8264,13 +7718,11 @@
         <v>10</v>
       </c>
       <c r="F248" t="s">
-        <v>20</v>
-      </c>
-      <c r="G248" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G248" t="s"/>
       <c r="H248" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -8290,13 +7742,11 @@
         <v>10</v>
       </c>
       <c r="F249" t="s">
-        <v>231</v>
-      </c>
-      <c r="G249" t="s">
-        <v>232</v>
-      </c>
+        <v>220</v>
+      </c>
+      <c r="G249" t="s"/>
       <c r="H249" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -8316,13 +7766,11 @@
         <v>10</v>
       </c>
       <c r="F250" t="s">
-        <v>20</v>
-      </c>
-      <c r="G250" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G250" t="s"/>
       <c r="H250" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -8342,13 +7790,11 @@
         <v>10</v>
       </c>
       <c r="F251" t="s">
-        <v>231</v>
-      </c>
-      <c r="G251" t="s">
-        <v>232</v>
-      </c>
+        <v>220</v>
+      </c>
+      <c r="G251" t="s"/>
       <c r="H251" t="s">
-        <v>257</v>
+        <v>245</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -8368,13 +7814,11 @@
         <v>10</v>
       </c>
       <c r="F252" t="s">
-        <v>20</v>
-      </c>
-      <c r="G252" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G252" t="s"/>
       <c r="H252" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -8394,13 +7838,11 @@
         <v>10</v>
       </c>
       <c r="F253" t="s">
-        <v>231</v>
-      </c>
-      <c r="G253" t="s">
-        <v>232</v>
-      </c>
+        <v>220</v>
+      </c>
+      <c r="G253" t="s"/>
       <c r="H253" t="s">
-        <v>264</v>
+        <v>252</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -8420,13 +7862,11 @@
         <v>10</v>
       </c>
       <c r="F254" t="s">
-        <v>36</v>
-      </c>
-      <c r="G254" t="s">
-        <v>37</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="G254" t="s"/>
       <c r="H254" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -8446,13 +7886,11 @@
         <v>10</v>
       </c>
       <c r="F255" t="s">
-        <v>231</v>
-      </c>
-      <c r="G255" t="s">
-        <v>232</v>
-      </c>
+        <v>220</v>
+      </c>
+      <c r="G255" t="s"/>
       <c r="H255" t="s">
-        <v>266</v>
+        <v>254</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -8472,13 +7910,11 @@
         <v>10</v>
       </c>
       <c r="F256" t="s">
-        <v>36</v>
-      </c>
-      <c r="G256" t="s">
-        <v>37</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="G256" t="s"/>
       <c r="H256" t="s">
-        <v>267</v>
+        <v>255</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -8498,13 +7934,11 @@
         <v>10</v>
       </c>
       <c r="F257" t="s">
-        <v>268</v>
-      </c>
-      <c r="G257" t="s">
-        <v>269</v>
-      </c>
+        <v>256</v>
+      </c>
+      <c r="G257" t="s"/>
       <c r="H257" t="s">
-        <v>270</v>
+        <v>257</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -8524,13 +7958,11 @@
         <v>10</v>
       </c>
       <c r="F258" t="s">
-        <v>20</v>
-      </c>
-      <c r="G258" t="s">
-        <v>34</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G258" t="s"/>
       <c r="H258" t="s">
-        <v>271</v>
+        <v>258</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -8550,13 +7982,11 @@
         <v>10</v>
       </c>
       <c r="F259" t="s">
-        <v>268</v>
-      </c>
-      <c r="G259" t="s">
-        <v>269</v>
-      </c>
+        <v>256</v>
+      </c>
+      <c r="G259" t="s"/>
       <c r="H259" t="s">
-        <v>272</v>
+        <v>259</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -8576,13 +8006,11 @@
         <v>10</v>
       </c>
       <c r="F260" t="s">
-        <v>20</v>
-      </c>
-      <c r="G260" t="s">
-        <v>34</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G260" t="s"/>
       <c r="H260" t="s">
-        <v>273</v>
+        <v>260</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -8602,13 +8030,11 @@
         <v>10</v>
       </c>
       <c r="F261" t="s">
-        <v>268</v>
-      </c>
-      <c r="G261" t="s">
-        <v>269</v>
-      </c>
+        <v>256</v>
+      </c>
+      <c r="G261" t="s"/>
       <c r="H261" t="s">
-        <v>274</v>
+        <v>261</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -8628,13 +8054,11 @@
         <v>10</v>
       </c>
       <c r="F262" t="s">
-        <v>268</v>
-      </c>
-      <c r="G262" t="s">
-        <v>269</v>
-      </c>
+        <v>256</v>
+      </c>
+      <c r="G262" t="s"/>
       <c r="H262" t="s">
-        <v>275</v>
+        <v>262</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -8654,13 +8078,11 @@
         <v>10</v>
       </c>
       <c r="F263" t="s">
-        <v>20</v>
-      </c>
-      <c r="G263" t="s">
-        <v>34</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G263" t="s"/>
       <c r="H263" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -8680,13 +8102,11 @@
         <v>10</v>
       </c>
       <c r="F264" t="s">
-        <v>268</v>
-      </c>
-      <c r="G264" t="s">
-        <v>269</v>
-      </c>
+        <v>256</v>
+      </c>
+      <c r="G264" t="s"/>
       <c r="H264" t="s">
-        <v>276</v>
+        <v>263</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -8706,13 +8126,11 @@
         <v>10</v>
       </c>
       <c r="F265" t="s">
-        <v>20</v>
-      </c>
-      <c r="G265" t="s">
-        <v>34</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G265" t="s"/>
       <c r="H265" t="s">
-        <v>277</v>
+        <v>264</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -8732,13 +8150,11 @@
         <v>10</v>
       </c>
       <c r="F266" t="s">
-        <v>268</v>
-      </c>
-      <c r="G266" t="s">
-        <v>269</v>
-      </c>
+        <v>256</v>
+      </c>
+      <c r="G266" t="s"/>
       <c r="H266" t="s">
-        <v>278</v>
+        <v>265</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -8758,13 +8174,11 @@
         <v>10</v>
       </c>
       <c r="F267" t="s">
-        <v>20</v>
-      </c>
-      <c r="G267" t="s">
-        <v>34</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G267" t="s"/>
       <c r="H267" t="s">
-        <v>279</v>
+        <v>266</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -8784,13 +8198,11 @@
         <v>10</v>
       </c>
       <c r="F268" t="s">
-        <v>268</v>
-      </c>
-      <c r="G268" t="s">
-        <v>269</v>
-      </c>
+        <v>256</v>
+      </c>
+      <c r="G268" t="s"/>
       <c r="H268" t="s">
-        <v>280</v>
+        <v>267</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -8810,13 +8222,11 @@
         <v>10</v>
       </c>
       <c r="F269" t="s">
-        <v>20</v>
-      </c>
-      <c r="G269" t="s">
-        <v>34</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G269" t="s"/>
       <c r="H269" t="s">
-        <v>281</v>
+        <v>268</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -8836,13 +8246,11 @@
         <v>10</v>
       </c>
       <c r="F270" t="s">
-        <v>268</v>
-      </c>
-      <c r="G270" t="s">
+        <v>256</v>
+      </c>
+      <c r="G270" t="s"/>
+      <c r="H270" t="s">
         <v>269</v>
-      </c>
-      <c r="H270" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -8862,13 +8270,11 @@
         <v>10</v>
       </c>
       <c r="F271" t="s">
-        <v>20</v>
-      </c>
-      <c r="G271" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G271" t="s"/>
       <c r="H271" t="s">
-        <v>283</v>
+        <v>270</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -8888,13 +8294,11 @@
         <v>10</v>
       </c>
       <c r="F272" t="s">
-        <v>268</v>
-      </c>
-      <c r="G272" t="s">
-        <v>269</v>
-      </c>
+        <v>256</v>
+      </c>
+      <c r="G272" t="s"/>
       <c r="H272" t="s">
-        <v>284</v>
+        <v>271</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -8914,13 +8318,11 @@
         <v>10</v>
       </c>
       <c r="F273" t="s">
-        <v>20</v>
-      </c>
-      <c r="G273" t="s">
-        <v>31</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G273" t="s"/>
       <c r="H273" t="s">
-        <v>285</v>
+        <v>272</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -8940,13 +8342,11 @@
         <v>10</v>
       </c>
       <c r="F274" t="s">
-        <v>268</v>
-      </c>
-      <c r="G274" t="s">
-        <v>269</v>
-      </c>
+        <v>256</v>
+      </c>
+      <c r="G274" t="s"/>
       <c r="H274" t="s">
-        <v>286</v>
+        <v>273</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -8966,13 +8366,11 @@
         <v>10</v>
       </c>
       <c r="F275" t="s">
-        <v>20</v>
-      </c>
-      <c r="G275" t="s">
-        <v>31</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G275" t="s"/>
       <c r="H275" t="s">
-        <v>287</v>
+        <v>274</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -8992,13 +8390,11 @@
         <v>10</v>
       </c>
       <c r="F276" t="s">
-        <v>36</v>
-      </c>
-      <c r="G276" t="s">
-        <v>37</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="G276" t="s"/>
       <c r="H276" t="s">
-        <v>288</v>
+        <v>275</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -9018,13 +8414,11 @@
         <v>10</v>
       </c>
       <c r="F277" t="s">
-        <v>20</v>
-      </c>
-      <c r="G277" t="s">
-        <v>31</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G277" t="s"/>
       <c r="H277" t="s">
-        <v>289</v>
+        <v>276</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -9044,13 +8438,11 @@
         <v>10</v>
       </c>
       <c r="F278" t="s">
-        <v>268</v>
-      </c>
-      <c r="G278" t="s">
-        <v>269</v>
-      </c>
+        <v>256</v>
+      </c>
+      <c r="G278" t="s"/>
       <c r="H278" t="s">
-        <v>290</v>
+        <v>277</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -9070,13 +8462,11 @@
         <v>10</v>
       </c>
       <c r="F279" t="s">
-        <v>36</v>
-      </c>
-      <c r="G279" t="s">
-        <v>37</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="G279" t="s"/>
       <c r="H279" t="s">
-        <v>291</v>
+        <v>278</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -9096,13 +8486,11 @@
         <v>10</v>
       </c>
       <c r="F280" t="s">
-        <v>292</v>
-      </c>
-      <c r="G280" t="s">
-        <v>293</v>
-      </c>
+        <v>279</v>
+      </c>
+      <c r="G280" t="s"/>
       <c r="H280" t="s">
-        <v>294</v>
+        <v>280</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -9122,13 +8510,11 @@
         <v>10</v>
       </c>
       <c r="F281" t="s">
-        <v>20</v>
-      </c>
-      <c r="G281" t="s">
-        <v>31</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G281" t="s"/>
       <c r="H281" t="s">
-        <v>295</v>
+        <v>281</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -9148,13 +8534,11 @@
         <v>10</v>
       </c>
       <c r="F282" t="s">
-        <v>292</v>
-      </c>
-      <c r="G282" t="s">
-        <v>293</v>
-      </c>
+        <v>279</v>
+      </c>
+      <c r="G282" t="s"/>
       <c r="H282" t="s">
-        <v>296</v>
+        <v>282</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -9174,13 +8558,11 @@
         <v>10</v>
       </c>
       <c r="F283" t="s">
-        <v>20</v>
-      </c>
-      <c r="G283" t="s">
-        <v>31</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G283" t="s"/>
       <c r="H283" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -9200,13 +8582,11 @@
         <v>10</v>
       </c>
       <c r="F284" t="s">
-        <v>20</v>
-      </c>
-      <c r="G284" t="s">
-        <v>31</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G284" t="s"/>
       <c r="H284" t="s">
-        <v>297</v>
+        <v>283</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -9226,13 +8606,11 @@
         <v>10</v>
       </c>
       <c r="F285" t="s">
-        <v>292</v>
-      </c>
-      <c r="G285" t="s">
-        <v>293</v>
-      </c>
+        <v>279</v>
+      </c>
+      <c r="G285" t="s"/>
       <c r="H285" t="s">
-        <v>298</v>
+        <v>284</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -9252,13 +8630,11 @@
         <v>10</v>
       </c>
       <c r="F286" t="s">
-        <v>20</v>
-      </c>
-      <c r="G286" t="s">
-        <v>31</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G286" t="s"/>
       <c r="H286" t="s">
-        <v>299</v>
+        <v>285</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -9278,13 +8654,11 @@
         <v>10</v>
       </c>
       <c r="F287" t="s">
-        <v>292</v>
-      </c>
-      <c r="G287" t="s">
-        <v>293</v>
-      </c>
+        <v>279</v>
+      </c>
+      <c r="G287" t="s"/>
       <c r="H287" t="s">
-        <v>300</v>
+        <v>286</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -9304,13 +8678,11 @@
         <v>10</v>
       </c>
       <c r="F288" t="s">
-        <v>20</v>
-      </c>
-      <c r="G288" t="s">
-        <v>34</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G288" t="s"/>
       <c r="H288" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -9330,13 +8702,11 @@
         <v>10</v>
       </c>
       <c r="F289" t="s">
-        <v>292</v>
-      </c>
-      <c r="G289" t="s">
-        <v>293</v>
-      </c>
+        <v>279</v>
+      </c>
+      <c r="G289" t="s"/>
       <c r="H289" t="s">
-        <v>301</v>
+        <v>287</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -9356,13 +8726,11 @@
         <v>10</v>
       </c>
       <c r="F290" t="s">
-        <v>20</v>
-      </c>
-      <c r="G290" t="s">
-        <v>34</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G290" t="s"/>
       <c r="H290" t="s">
-        <v>302</v>
+        <v>288</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -9382,13 +8750,11 @@
         <v>10</v>
       </c>
       <c r="F291" t="s">
-        <v>292</v>
-      </c>
-      <c r="G291" t="s">
-        <v>293</v>
-      </c>
+        <v>279</v>
+      </c>
+      <c r="G291" t="s"/>
       <c r="H291" t="s">
-        <v>303</v>
+        <v>289</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -9408,13 +8774,11 @@
         <v>10</v>
       </c>
       <c r="F292" t="s">
-        <v>20</v>
-      </c>
-      <c r="G292" t="s">
-        <v>34</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G292" t="s"/>
       <c r="H292" t="s">
-        <v>304</v>
+        <v>290</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -9434,13 +8798,11 @@
         <v>10</v>
       </c>
       <c r="F293" t="s">
-        <v>292</v>
-      </c>
-      <c r="G293" t="s">
-        <v>293</v>
-      </c>
+        <v>279</v>
+      </c>
+      <c r="G293" t="s"/>
       <c r="H293" t="s">
-        <v>305</v>
+        <v>291</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -9460,13 +8822,11 @@
         <v>10</v>
       </c>
       <c r="F294" t="s">
-        <v>20</v>
-      </c>
-      <c r="G294" t="s">
-        <v>34</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G294" t="s"/>
       <c r="H294" t="s">
-        <v>306</v>
+        <v>292</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -9486,13 +8846,11 @@
         <v>10</v>
       </c>
       <c r="F295" t="s">
-        <v>292</v>
-      </c>
-      <c r="G295" t="s">
+        <v>279</v>
+      </c>
+      <c r="G295" t="s"/>
+      <c r="H295" t="s">
         <v>293</v>
-      </c>
-      <c r="H295" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -9512,13 +8870,11 @@
         <v>10</v>
       </c>
       <c r="F296" t="s">
-        <v>20</v>
-      </c>
-      <c r="G296" t="s">
-        <v>34</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G296" t="s"/>
       <c r="H296" t="s">
-        <v>308</v>
+        <v>294</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -9538,13 +8894,11 @@
         <v>10</v>
       </c>
       <c r="F297" t="s">
-        <v>292</v>
-      </c>
-      <c r="G297" t="s">
-        <v>293</v>
-      </c>
+        <v>279</v>
+      </c>
+      <c r="G297" t="s"/>
       <c r="H297" t="s">
-        <v>309</v>
+        <v>295</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -9564,13 +8918,11 @@
         <v>10</v>
       </c>
       <c r="F298" t="s">
-        <v>20</v>
-      </c>
-      <c r="G298" t="s">
-        <v>34</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G298" t="s"/>
       <c r="H298" t="s">
-        <v>310</v>
+        <v>296</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -9590,13 +8942,11 @@
         <v>10</v>
       </c>
       <c r="F299" t="s">
-        <v>292</v>
-      </c>
-      <c r="G299" t="s">
-        <v>293</v>
-      </c>
+        <v>279</v>
+      </c>
+      <c r="G299" t="s"/>
       <c r="H299" t="s">
-        <v>311</v>
+        <v>297</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -9616,13 +8966,11 @@
         <v>10</v>
       </c>
       <c r="F300" t="s">
-        <v>20</v>
-      </c>
-      <c r="G300" t="s">
-        <v>31</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G300" t="s"/>
       <c r="H300" t="s">
-        <v>312</v>
+        <v>298</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -9642,13 +8990,11 @@
         <v>10</v>
       </c>
       <c r="F301" t="s">
-        <v>292</v>
-      </c>
-      <c r="G301" t="s">
-        <v>293</v>
-      </c>
+        <v>279</v>
+      </c>
+      <c r="G301" t="s"/>
       <c r="H301" t="s">
-        <v>313</v>
+        <v>299</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -9668,13 +9014,11 @@
         <v>10</v>
       </c>
       <c r="F302" t="s">
-        <v>20</v>
-      </c>
-      <c r="G302" t="s">
-        <v>31</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G302" t="s"/>
       <c r="H302" t="s">
-        <v>314</v>
+        <v>300</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -9694,13 +9038,11 @@
         <v>10</v>
       </c>
       <c r="F303" t="s">
-        <v>292</v>
-      </c>
-      <c r="G303" t="s">
-        <v>293</v>
-      </c>
+        <v>279</v>
+      </c>
+      <c r="G303" t="s"/>
       <c r="H303" t="s">
-        <v>315</v>
+        <v>301</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -9720,13 +9062,11 @@
         <v>10</v>
       </c>
       <c r="F304" t="s">
-        <v>20</v>
-      </c>
-      <c r="G304" t="s">
-        <v>31</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G304" t="s"/>
       <c r="H304" t="s">
-        <v>316</v>
+        <v>302</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -9746,13 +9086,11 @@
         <v>10</v>
       </c>
       <c r="F305" t="s">
-        <v>292</v>
-      </c>
-      <c r="G305" t="s">
-        <v>293</v>
-      </c>
+        <v>279</v>
+      </c>
+      <c r="G305" t="s"/>
       <c r="H305" t="s">
-        <v>317</v>
+        <v>303</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -9772,13 +9110,11 @@
         <v>10</v>
       </c>
       <c r="F306" t="s">
-        <v>36</v>
-      </c>
-      <c r="G306" t="s">
-        <v>37</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="G306" t="s"/>
       <c r="H306" t="s">
-        <v>318</v>
+        <v>304</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -9798,13 +9134,11 @@
         <v>10</v>
       </c>
       <c r="F307" t="s">
-        <v>36</v>
-      </c>
-      <c r="G307" t="s">
-        <v>37</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="G307" t="s"/>
       <c r="H307" t="s">
-        <v>319</v>
+        <v>305</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -9824,13 +9158,11 @@
         <v>10</v>
       </c>
       <c r="F308" t="s">
-        <v>320</v>
-      </c>
-      <c r="G308" t="s">
-        <v>321</v>
-      </c>
+        <v>306</v>
+      </c>
+      <c r="G308" t="s"/>
       <c r="H308" t="s">
-        <v>322</v>
+        <v>307</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -9850,13 +9182,11 @@
         <v>10</v>
       </c>
       <c r="F309" t="s">
-        <v>20</v>
-      </c>
-      <c r="G309" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G309" t="s"/>
       <c r="H309" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -9876,13 +9206,11 @@
         <v>10</v>
       </c>
       <c r="F310" t="s">
-        <v>20</v>
-      </c>
-      <c r="G310" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G310" t="s"/>
       <c r="H310" t="s">
-        <v>323</v>
+        <v>308</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -9902,13 +9230,11 @@
         <v>10</v>
       </c>
       <c r="F311" t="s">
-        <v>20</v>
-      </c>
-      <c r="G311" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G311" t="s"/>
       <c r="H311" t="s">
-        <v>324</v>
+        <v>309</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -9928,13 +9254,11 @@
         <v>10</v>
       </c>
       <c r="F312" t="s">
-        <v>320</v>
-      </c>
-      <c r="G312" t="s">
-        <v>321</v>
-      </c>
+        <v>306</v>
+      </c>
+      <c r="G312" t="s"/>
       <c r="H312" t="s">
-        <v>325</v>
+        <v>310</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -9954,13 +9278,11 @@
         <v>10</v>
       </c>
       <c r="F313" t="s">
-        <v>20</v>
-      </c>
-      <c r="G313" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G313" t="s"/>
       <c r="H313" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -9980,13 +9302,11 @@
         <v>10</v>
       </c>
       <c r="F314" t="s">
-        <v>320</v>
-      </c>
-      <c r="G314" t="s">
-        <v>321</v>
-      </c>
+        <v>306</v>
+      </c>
+      <c r="G314" t="s"/>
       <c r="H314" t="s">
-        <v>326</v>
+        <v>311</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -10006,13 +9326,11 @@
         <v>10</v>
       </c>
       <c r="F315" t="s">
-        <v>20</v>
-      </c>
-      <c r="G315" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G315" t="s"/>
       <c r="H315" t="s">
-        <v>327</v>
+        <v>312</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -10032,13 +9350,11 @@
         <v>10</v>
       </c>
       <c r="F316" t="s">
-        <v>320</v>
-      </c>
-      <c r="G316" t="s">
-        <v>321</v>
-      </c>
+        <v>306</v>
+      </c>
+      <c r="G316" t="s"/>
       <c r="H316" t="s">
-        <v>328</v>
+        <v>313</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -10058,13 +9374,11 @@
         <v>10</v>
       </c>
       <c r="F317" t="s">
-        <v>20</v>
-      </c>
-      <c r="G317" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G317" t="s"/>
       <c r="H317" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -10084,13 +9398,11 @@
         <v>10</v>
       </c>
       <c r="F318" t="s">
-        <v>320</v>
-      </c>
-      <c r="G318" t="s">
-        <v>321</v>
-      </c>
+        <v>306</v>
+      </c>
+      <c r="G318" t="s"/>
       <c r="H318" t="s">
-        <v>329</v>
+        <v>314</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -10110,13 +9422,11 @@
         <v>10</v>
       </c>
       <c r="F319" t="s">
-        <v>20</v>
-      </c>
-      <c r="G319" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G319" t="s"/>
       <c r="H319" t="s">
-        <v>330</v>
+        <v>315</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -10136,13 +9446,11 @@
         <v>10</v>
       </c>
       <c r="F320" t="s">
-        <v>320</v>
-      </c>
-      <c r="G320" t="s">
-        <v>321</v>
-      </c>
+        <v>306</v>
+      </c>
+      <c r="G320" t="s"/>
       <c r="H320" t="s">
-        <v>331</v>
+        <v>316</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -10162,13 +9470,11 @@
         <v>10</v>
       </c>
       <c r="F321" t="s">
-        <v>20</v>
-      </c>
-      <c r="G321" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G321" t="s"/>
       <c r="H321" t="s">
-        <v>332</v>
+        <v>317</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -10188,13 +9494,11 @@
         <v>10</v>
       </c>
       <c r="F322" t="s">
-        <v>320</v>
-      </c>
-      <c r="G322" t="s">
-        <v>321</v>
-      </c>
+        <v>306</v>
+      </c>
+      <c r="G322" t="s"/>
       <c r="H322" t="s">
-        <v>333</v>
+        <v>318</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -10214,13 +9518,11 @@
         <v>10</v>
       </c>
       <c r="F323" t="s">
-        <v>20</v>
-      </c>
-      <c r="G323" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G323" t="s"/>
       <c r="H323" t="s">
-        <v>334</v>
+        <v>319</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -10240,13 +9542,11 @@
         <v>10</v>
       </c>
       <c r="F324" t="s">
+        <v>306</v>
+      </c>
+      <c r="G324" t="s"/>
+      <c r="H324" t="s">
         <v>320</v>
-      </c>
-      <c r="G324" t="s">
-        <v>321</v>
-      </c>
-      <c r="H324" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -10266,13 +9566,11 @@
         <v>10</v>
       </c>
       <c r="F325" t="s">
-        <v>20</v>
-      </c>
-      <c r="G325" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G325" t="s"/>
       <c r="H325" t="s">
-        <v>336</v>
+        <v>321</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -10292,13 +9590,11 @@
         <v>10</v>
       </c>
       <c r="F326" t="s">
-        <v>320</v>
-      </c>
-      <c r="G326" t="s">
-        <v>321</v>
-      </c>
+        <v>306</v>
+      </c>
+      <c r="G326" t="s"/>
       <c r="H326" t="s">
-        <v>337</v>
+        <v>322</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -10318,13 +9614,11 @@
         <v>10</v>
       </c>
       <c r="F327" t="s">
-        <v>20</v>
-      </c>
-      <c r="G327" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G327" t="s"/>
       <c r="H327" t="s">
-        <v>338</v>
+        <v>323</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -10344,13 +9638,11 @@
         <v>10</v>
       </c>
       <c r="F328" t="s">
-        <v>320</v>
-      </c>
-      <c r="G328" t="s">
-        <v>321</v>
-      </c>
+        <v>306</v>
+      </c>
+      <c r="G328" t="s"/>
       <c r="H328" t="s">
-        <v>339</v>
+        <v>324</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -10370,13 +9662,11 @@
         <v>10</v>
       </c>
       <c r="F329" t="s">
-        <v>20</v>
-      </c>
-      <c r="G329" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G329" t="s"/>
       <c r="H329" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -10396,13 +9686,11 @@
         <v>10</v>
       </c>
       <c r="F330" t="s">
-        <v>320</v>
-      </c>
-      <c r="G330" t="s">
-        <v>321</v>
-      </c>
+        <v>306</v>
+      </c>
+      <c r="G330" t="s"/>
       <c r="H330" t="s">
-        <v>340</v>
+        <v>325</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -10422,13 +9710,11 @@
         <v>10</v>
       </c>
       <c r="F331" t="s">
-        <v>20</v>
-      </c>
-      <c r="G331" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G331" t="s"/>
       <c r="H331" t="s">
-        <v>341</v>
+        <v>326</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -10448,13 +9734,11 @@
         <v>10</v>
       </c>
       <c r="F332" t="s">
-        <v>320</v>
-      </c>
-      <c r="G332" t="s">
-        <v>321</v>
-      </c>
+        <v>306</v>
+      </c>
+      <c r="G332" t="s"/>
       <c r="H332" t="s">
-        <v>342</v>
+        <v>327</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -10474,13 +9758,11 @@
         <v>10</v>
       </c>
       <c r="F333" t="s">
-        <v>20</v>
-      </c>
-      <c r="G333" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G333" t="s"/>
       <c r="H333" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -10500,13 +9782,11 @@
         <v>10</v>
       </c>
       <c r="F334" t="s">
-        <v>320</v>
-      </c>
-      <c r="G334" t="s">
-        <v>321</v>
-      </c>
+        <v>306</v>
+      </c>
+      <c r="G334" t="s"/>
       <c r="H334" t="s">
-        <v>343</v>
+        <v>328</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -10526,13 +9806,11 @@
         <v>10</v>
       </c>
       <c r="F335" t="s">
-        <v>20</v>
-      </c>
-      <c r="G335" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G335" t="s"/>
       <c r="H335" t="s">
-        <v>344</v>
+        <v>329</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -10552,13 +9830,11 @@
         <v>10</v>
       </c>
       <c r="F336" t="s">
-        <v>320</v>
-      </c>
-      <c r="G336" t="s">
-        <v>321</v>
-      </c>
+        <v>306</v>
+      </c>
+      <c r="G336" t="s"/>
       <c r="H336" t="s">
-        <v>337</v>
+        <v>322</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -10578,13 +9854,11 @@
         <v>10</v>
       </c>
       <c r="F337" t="s">
-        <v>320</v>
-      </c>
-      <c r="G337" t="s">
-        <v>321</v>
-      </c>
+        <v>306</v>
+      </c>
+      <c r="G337" t="s"/>
       <c r="H337" t="s">
-        <v>345</v>
+        <v>330</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -10604,13 +9878,11 @@
         <v>10</v>
       </c>
       <c r="F338" t="s">
-        <v>20</v>
-      </c>
-      <c r="G338" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G338" t="s"/>
       <c r="H338" t="s">
-        <v>346</v>
+        <v>331</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -10630,13 +9902,11 @@
         <v>10</v>
       </c>
       <c r="F339" t="s">
-        <v>320</v>
-      </c>
-      <c r="G339" t="s">
-        <v>321</v>
-      </c>
+        <v>306</v>
+      </c>
+      <c r="G339" t="s"/>
       <c r="H339" t="s">
-        <v>347</v>
+        <v>332</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -10656,13 +9926,11 @@
         <v>10</v>
       </c>
       <c r="F340" t="s">
-        <v>20</v>
-      </c>
-      <c r="G340" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G340" t="s"/>
       <c r="H340" t="s">
-        <v>348</v>
+        <v>333</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -10682,13 +9950,11 @@
         <v>10</v>
       </c>
       <c r="F341" t="s">
-        <v>320</v>
-      </c>
-      <c r="G341" t="s">
-        <v>321</v>
-      </c>
+        <v>306</v>
+      </c>
+      <c r="G341" t="s"/>
       <c r="H341" t="s">
-        <v>349</v>
+        <v>334</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -10708,13 +9974,11 @@
         <v>10</v>
       </c>
       <c r="F342" t="s">
-        <v>20</v>
-      </c>
-      <c r="G342" t="s">
-        <v>34</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G342" t="s"/>
       <c r="H342" t="s">
-        <v>350</v>
+        <v>335</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -10734,13 +9998,11 @@
         <v>10</v>
       </c>
       <c r="F343" t="s">
-        <v>320</v>
-      </c>
-      <c r="G343" t="s">
-        <v>321</v>
-      </c>
+        <v>306</v>
+      </c>
+      <c r="G343" t="s"/>
       <c r="H343" t="s">
-        <v>337</v>
+        <v>322</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -10760,13 +10022,11 @@
         <v>10</v>
       </c>
       <c r="F344" t="s">
-        <v>320</v>
-      </c>
-      <c r="G344" t="s">
-        <v>321</v>
-      </c>
+        <v>306</v>
+      </c>
+      <c r="G344" t="s"/>
       <c r="H344" t="s">
-        <v>351</v>
+        <v>336</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -10786,13 +10046,11 @@
         <v>10</v>
       </c>
       <c r="F345" t="s">
-        <v>20</v>
-      </c>
-      <c r="G345" t="s">
-        <v>34</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G345" t="s"/>
       <c r="H345" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -10812,13 +10070,11 @@
         <v>10</v>
       </c>
       <c r="F346" t="s">
-        <v>320</v>
-      </c>
-      <c r="G346" t="s">
-        <v>321</v>
-      </c>
+        <v>306</v>
+      </c>
+      <c r="G346" t="s"/>
       <c r="H346" t="s">
-        <v>352</v>
+        <v>337</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -10838,13 +10094,11 @@
         <v>10</v>
       </c>
       <c r="F347" t="s">
-        <v>20</v>
-      </c>
-      <c r="G347" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G347" t="s"/>
       <c r="H347" t="s">
-        <v>353</v>
+        <v>338</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -10864,13 +10118,11 @@
         <v>10</v>
       </c>
       <c r="F348" t="s">
-        <v>320</v>
-      </c>
-      <c r="G348" t="s">
-        <v>321</v>
-      </c>
+        <v>306</v>
+      </c>
+      <c r="G348" t="s"/>
       <c r="H348" t="s">
-        <v>354</v>
+        <v>339</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -10890,13 +10142,11 @@
         <v>10</v>
       </c>
       <c r="F349" t="s">
-        <v>20</v>
-      </c>
-      <c r="G349" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G349" t="s"/>
       <c r="H349" t="s">
-        <v>355</v>
+        <v>340</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -10916,13 +10166,11 @@
         <v>10</v>
       </c>
       <c r="F350" t="s">
-        <v>20</v>
-      </c>
-      <c r="G350" t="s">
-        <v>34</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G350" t="s"/>
       <c r="H350" t="s">
-        <v>356</v>
+        <v>341</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -10942,13 +10190,11 @@
         <v>10</v>
       </c>
       <c r="F351" t="s">
-        <v>320</v>
-      </c>
-      <c r="G351" t="s">
-        <v>321</v>
-      </c>
+        <v>306</v>
+      </c>
+      <c r="G351" t="s"/>
       <c r="H351" t="s">
-        <v>357</v>
+        <v>342</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -10968,13 +10214,11 @@
         <v>10</v>
       </c>
       <c r="F352" t="s">
-        <v>20</v>
-      </c>
-      <c r="G352" t="s">
-        <v>34</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G352" t="s"/>
       <c r="H352" t="s">
-        <v>358</v>
+        <v>343</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -10994,13 +10238,11 @@
         <v>10</v>
       </c>
       <c r="F353" t="s">
-        <v>320</v>
-      </c>
-      <c r="G353" t="s">
-        <v>321</v>
-      </c>
+        <v>306</v>
+      </c>
+      <c r="G353" t="s"/>
       <c r="H353" t="s">
-        <v>359</v>
+        <v>344</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -11020,13 +10262,11 @@
         <v>10</v>
       </c>
       <c r="F354" t="s">
-        <v>20</v>
-      </c>
-      <c r="G354" t="s">
-        <v>34</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G354" t="s"/>
       <c r="H354" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -11046,13 +10286,11 @@
         <v>10</v>
       </c>
       <c r="F355" t="s">
-        <v>320</v>
-      </c>
-      <c r="G355" t="s">
-        <v>321</v>
-      </c>
+        <v>306</v>
+      </c>
+      <c r="G355" t="s"/>
       <c r="H355" t="s">
-        <v>360</v>
+        <v>345</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -11072,13 +10310,11 @@
         <v>10</v>
       </c>
       <c r="F356" t="s">
-        <v>20</v>
-      </c>
-      <c r="G356" t="s">
-        <v>34</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G356" t="s"/>
       <c r="H356" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -11098,13 +10334,11 @@
         <v>10</v>
       </c>
       <c r="F357" t="s">
-        <v>36</v>
-      </c>
-      <c r="G357" t="s">
-        <v>37</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="G357" t="s"/>
       <c r="H357" t="s">
-        <v>361</v>
+        <v>346</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -11124,13 +10358,11 @@
         <v>10</v>
       </c>
       <c r="F358" t="s">
-        <v>362</v>
-      </c>
-      <c r="G358" t="s">
-        <v>363</v>
-      </c>
+        <v>347</v>
+      </c>
+      <c r="G358" t="s"/>
       <c r="H358" t="s">
-        <v>364</v>
+        <v>348</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -11150,13 +10382,11 @@
         <v>10</v>
       </c>
       <c r="F359" t="s">
-        <v>20</v>
-      </c>
-      <c r="G359" t="s">
-        <v>34</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G359" t="s"/>
       <c r="H359" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -11176,13 +10406,11 @@
         <v>10</v>
       </c>
       <c r="F360" t="s">
-        <v>362</v>
-      </c>
-      <c r="G360" t="s">
-        <v>363</v>
-      </c>
+        <v>347</v>
+      </c>
+      <c r="G360" t="s"/>
       <c r="H360" t="s">
-        <v>365</v>
+        <v>349</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -11202,13 +10430,11 @@
         <v>10</v>
       </c>
       <c r="F361" t="s">
-        <v>20</v>
-      </c>
-      <c r="G361" t="s">
-        <v>31</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G361" t="s"/>
       <c r="H361" t="s">
-        <v>366</v>
+        <v>350</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -11228,13 +10454,11 @@
         <v>10</v>
       </c>
       <c r="F362" t="s">
-        <v>362</v>
-      </c>
-      <c r="G362" t="s">
-        <v>363</v>
-      </c>
+        <v>347</v>
+      </c>
+      <c r="G362" t="s"/>
       <c r="H362" t="s">
-        <v>367</v>
+        <v>351</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -11254,13 +10478,11 @@
         <v>10</v>
       </c>
       <c r="F363" t="s">
-        <v>20</v>
-      </c>
-      <c r="G363" t="s">
-        <v>31</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G363" t="s"/>
       <c r="H363" t="s">
-        <v>368</v>
+        <v>352</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -11280,13 +10502,11 @@
         <v>10</v>
       </c>
       <c r="F364" t="s">
-        <v>362</v>
-      </c>
-      <c r="G364" t="s">
-        <v>363</v>
-      </c>
+        <v>347</v>
+      </c>
+      <c r="G364" t="s"/>
       <c r="H364" t="s">
-        <v>369</v>
+        <v>353</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -11306,13 +10526,11 @@
         <v>10</v>
       </c>
       <c r="F365" t="s">
-        <v>20</v>
-      </c>
-      <c r="G365" t="s">
-        <v>31</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G365" t="s"/>
       <c r="H365" t="s">
-        <v>370</v>
+        <v>354</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -11332,13 +10550,11 @@
         <v>10</v>
       </c>
       <c r="F366" t="s">
-        <v>20</v>
-      </c>
-      <c r="G366" t="s">
-        <v>34</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G366" t="s"/>
       <c r="H366" t="s">
-        <v>371</v>
+        <v>355</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -11358,13 +10574,11 @@
         <v>10</v>
       </c>
       <c r="F367" t="s">
-        <v>362</v>
-      </c>
-      <c r="G367" t="s">
-        <v>363</v>
-      </c>
+        <v>347</v>
+      </c>
+      <c r="G367" t="s"/>
       <c r="H367" t="s">
-        <v>372</v>
+        <v>356</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -11384,13 +10598,11 @@
         <v>10</v>
       </c>
       <c r="F368" t="s">
-        <v>20</v>
-      </c>
-      <c r="G368" t="s">
-        <v>34</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G368" t="s"/>
       <c r="H368" t="s">
-        <v>373</v>
+        <v>357</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -11410,13 +10622,11 @@
         <v>10</v>
       </c>
       <c r="F369" t="s">
-        <v>362</v>
-      </c>
-      <c r="G369" t="s">
-        <v>363</v>
-      </c>
+        <v>347</v>
+      </c>
+      <c r="G369" t="s"/>
       <c r="H369" t="s">
-        <v>374</v>
+        <v>358</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -11436,13 +10646,11 @@
         <v>10</v>
       </c>
       <c r="F370" t="s">
-        <v>20</v>
-      </c>
-      <c r="G370" t="s">
-        <v>34</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G370" t="s"/>
       <c r="H370" t="s">
-        <v>375</v>
+        <v>359</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -11462,13 +10670,11 @@
         <v>10</v>
       </c>
       <c r="F371" t="s">
-        <v>362</v>
-      </c>
-      <c r="G371" t="s">
-        <v>363</v>
-      </c>
+        <v>347</v>
+      </c>
+      <c r="G371" t="s"/>
       <c r="H371" t="s">
-        <v>376</v>
+        <v>360</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -11488,13 +10694,11 @@
         <v>10</v>
       </c>
       <c r="F372" t="s">
-        <v>20</v>
-      </c>
-      <c r="G372" t="s">
-        <v>34</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G372" t="s"/>
       <c r="H372" t="s">
-        <v>377</v>
+        <v>361</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -11514,13 +10718,11 @@
         <v>10</v>
       </c>
       <c r="F373" t="s">
+        <v>347</v>
+      </c>
+      <c r="G373" t="s"/>
+      <c r="H373" t="s">
         <v>362</v>
-      </c>
-      <c r="G373" t="s">
-        <v>363</v>
-      </c>
-      <c r="H373" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -11540,13 +10742,11 @@
         <v>10</v>
       </c>
       <c r="F374" t="s">
-        <v>20</v>
-      </c>
-      <c r="G374" t="s">
-        <v>31</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G374" t="s"/>
       <c r="H374" t="s">
-        <v>379</v>
+        <v>363</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -11566,13 +10766,11 @@
         <v>10</v>
       </c>
       <c r="F375" t="s">
-        <v>20</v>
-      </c>
-      <c r="G375" t="s">
-        <v>31</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G375" t="s"/>
       <c r="H375" t="s">
-        <v>380</v>
+        <v>364</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -11592,13 +10790,11 @@
         <v>10</v>
       </c>
       <c r="F376" t="s">
-        <v>362</v>
-      </c>
-      <c r="G376" t="s">
-        <v>363</v>
-      </c>
+        <v>347</v>
+      </c>
+      <c r="G376" t="s"/>
       <c r="H376" t="s">
-        <v>381</v>
+        <v>365</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -11618,13 +10814,11 @@
         <v>10</v>
       </c>
       <c r="F377" t="s">
-        <v>20</v>
-      </c>
-      <c r="G377" t="s">
-        <v>31</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G377" t="s"/>
       <c r="H377" t="s">
-        <v>382</v>
+        <v>366</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -11644,13 +10838,11 @@
         <v>10</v>
       </c>
       <c r="F378" t="s">
-        <v>362</v>
-      </c>
-      <c r="G378" t="s">
-        <v>363</v>
-      </c>
+        <v>347</v>
+      </c>
+      <c r="G378" t="s"/>
       <c r="H378" t="s">
-        <v>372</v>
+        <v>356</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -11670,13 +10862,11 @@
         <v>10</v>
       </c>
       <c r="F379" t="s">
-        <v>20</v>
-      </c>
-      <c r="G379" t="s">
-        <v>31</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G379" t="s"/>
       <c r="H379" t="s">
-        <v>383</v>
+        <v>367</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -11696,13 +10886,11 @@
         <v>10</v>
       </c>
       <c r="F380" t="s">
-        <v>362</v>
-      </c>
-      <c r="G380" t="s">
-        <v>363</v>
-      </c>
+        <v>347</v>
+      </c>
+      <c r="G380" t="s"/>
       <c r="H380" t="s">
-        <v>384</v>
+        <v>368</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -11722,13 +10910,11 @@
         <v>10</v>
       </c>
       <c r="F381" t="s">
-        <v>20</v>
-      </c>
-      <c r="G381" t="s">
-        <v>31</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G381" t="s"/>
       <c r="H381" t="s">
-        <v>385</v>
+        <v>369</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -11748,13 +10934,11 @@
         <v>10</v>
       </c>
       <c r="F382" t="s">
-        <v>36</v>
-      </c>
-      <c r="G382" t="s">
-        <v>37</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="G382" t="s"/>
       <c r="H382" t="s">
-        <v>386</v>
+        <v>370</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -11774,13 +10958,11 @@
         <v>10</v>
       </c>
       <c r="F383" t="s">
-        <v>387</v>
-      </c>
-      <c r="G383" t="s">
-        <v>388</v>
-      </c>
+        <v>371</v>
+      </c>
+      <c r="G383" t="s"/>
       <c r="H383" t="s">
-        <v>389</v>
+        <v>372</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -11800,13 +10982,11 @@
         <v>10</v>
       </c>
       <c r="F384" t="s">
-        <v>20</v>
-      </c>
-      <c r="G384" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G384" t="s"/>
       <c r="H384" t="s">
-        <v>390</v>
+        <v>373</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -11826,13 +11006,11 @@
         <v>10</v>
       </c>
       <c r="F385" t="s">
-        <v>387</v>
-      </c>
-      <c r="G385" t="s">
-        <v>388</v>
-      </c>
+        <v>371</v>
+      </c>
+      <c r="G385" t="s"/>
       <c r="H385" t="s">
-        <v>391</v>
+        <v>374</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -11852,13 +11030,11 @@
         <v>10</v>
       </c>
       <c r="F386" t="s">
-        <v>20</v>
-      </c>
-      <c r="G386" t="s">
-        <v>31</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G386" t="s"/>
       <c r="H386" t="s">
-        <v>392</v>
+        <v>375</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -11878,13 +11054,11 @@
         <v>10</v>
       </c>
       <c r="F387" t="s">
-        <v>387</v>
-      </c>
-      <c r="G387" t="s">
-        <v>388</v>
-      </c>
+        <v>371</v>
+      </c>
+      <c r="G387" t="s"/>
       <c r="H387" t="s">
-        <v>393</v>
+        <v>376</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -11904,13 +11078,11 @@
         <v>10</v>
       </c>
       <c r="F388" t="s">
-        <v>20</v>
-      </c>
-      <c r="G388" t="s">
-        <v>31</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G388" t="s"/>
       <c r="H388" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -11930,13 +11102,11 @@
         <v>10</v>
       </c>
       <c r="F389" t="s">
-        <v>387</v>
-      </c>
-      <c r="G389" t="s">
-        <v>388</v>
-      </c>
+        <v>371</v>
+      </c>
+      <c r="G389" t="s"/>
       <c r="H389" t="s">
-        <v>394</v>
+        <v>377</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -11956,13 +11126,11 @@
         <v>10</v>
       </c>
       <c r="F390" t="s">
-        <v>20</v>
-      </c>
-      <c r="G390" t="s">
-        <v>31</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G390" t="s"/>
       <c r="H390" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -11982,13 +11150,11 @@
         <v>10</v>
       </c>
       <c r="F391" t="s">
-        <v>387</v>
-      </c>
-      <c r="G391" t="s">
-        <v>388</v>
-      </c>
+        <v>371</v>
+      </c>
+      <c r="G391" t="s"/>
       <c r="H391" t="s">
-        <v>395</v>
+        <v>378</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -12008,13 +11174,11 @@
         <v>10</v>
       </c>
       <c r="F392" t="s">
-        <v>20</v>
-      </c>
-      <c r="G392" t="s">
-        <v>31</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G392" t="s"/>
       <c r="H392" t="s">
-        <v>396</v>
+        <v>379</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -12034,13 +11198,11 @@
         <v>10</v>
       </c>
       <c r="F393" t="s">
-        <v>387</v>
-      </c>
-      <c r="G393" t="s">
-        <v>388</v>
-      </c>
+        <v>371</v>
+      </c>
+      <c r="G393" t="s"/>
       <c r="H393" t="s">
-        <v>397</v>
+        <v>380</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -12060,13 +11222,11 @@
         <v>10</v>
       </c>
       <c r="F394" t="s">
-        <v>20</v>
-      </c>
-      <c r="G394" t="s">
-        <v>34</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G394" t="s"/>
       <c r="H394" t="s">
-        <v>398</v>
+        <v>381</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -12086,13 +11246,11 @@
         <v>10</v>
       </c>
       <c r="F395" t="s">
-        <v>387</v>
-      </c>
-      <c r="G395" t="s">
-        <v>388</v>
-      </c>
+        <v>371</v>
+      </c>
+      <c r="G395" t="s"/>
       <c r="H395" t="s">
-        <v>399</v>
+        <v>382</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -12112,13 +11270,11 @@
         <v>10</v>
       </c>
       <c r="F396" t="s">
-        <v>20</v>
-      </c>
-      <c r="G396" t="s">
-        <v>34</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G396" t="s"/>
       <c r="H396" t="s">
-        <v>400</v>
+        <v>383</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -12138,13 +11294,11 @@
         <v>10</v>
       </c>
       <c r="F397" t="s">
-        <v>387</v>
-      </c>
-      <c r="G397" t="s">
-        <v>388</v>
-      </c>
+        <v>371</v>
+      </c>
+      <c r="G397" t="s"/>
       <c r="H397" t="s">
-        <v>401</v>
+        <v>384</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -12164,13 +11318,11 @@
         <v>10</v>
       </c>
       <c r="F398" t="s">
-        <v>20</v>
-      </c>
-      <c r="G398" t="s">
-        <v>34</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G398" t="s"/>
       <c r="H398" t="s">
-        <v>402</v>
+        <v>385</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -12190,13 +11342,11 @@
         <v>10</v>
       </c>
       <c r="F399" t="s">
-        <v>387</v>
-      </c>
-      <c r="G399" t="s">
-        <v>388</v>
-      </c>
+        <v>371</v>
+      </c>
+      <c r="G399" t="s"/>
       <c r="H399" t="s">
-        <v>403</v>
+        <v>386</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -12216,13 +11366,11 @@
         <v>10</v>
       </c>
       <c r="F400" t="s">
-        <v>20</v>
-      </c>
-      <c r="G400" t="s">
-        <v>34</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G400" t="s"/>
       <c r="H400" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -12242,13 +11390,11 @@
         <v>10</v>
       </c>
       <c r="F401" t="s">
+        <v>371</v>
+      </c>
+      <c r="G401" t="s"/>
+      <c r="H401" t="s">
         <v>387</v>
-      </c>
-      <c r="G401" t="s">
-        <v>388</v>
-      </c>
-      <c r="H401" t="s">
-        <v>404</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -12268,13 +11414,11 @@
         <v>10</v>
       </c>
       <c r="F402" t="s">
-        <v>36</v>
-      </c>
-      <c r="G402" t="s">
-        <v>37</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="G402" t="s"/>
       <c r="H402" t="s">
-        <v>405</v>
+        <v>388</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -12294,13 +11438,11 @@
         <v>10</v>
       </c>
       <c r="F403" t="s">
-        <v>406</v>
-      </c>
-      <c r="G403" t="s">
-        <v>407</v>
-      </c>
+        <v>389</v>
+      </c>
+      <c r="G403" t="s"/>
       <c r="H403" t="s">
-        <v>408</v>
+        <v>390</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -12320,13 +11462,11 @@
         <v>10</v>
       </c>
       <c r="F404" t="s">
-        <v>20</v>
-      </c>
-      <c r="G404" t="s">
-        <v>31</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G404" t="s"/>
       <c r="H404" t="s">
-        <v>409</v>
+        <v>391</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -12346,13 +11486,11 @@
         <v>10</v>
       </c>
       <c r="F405" t="s">
-        <v>406</v>
-      </c>
-      <c r="G405" t="s">
-        <v>407</v>
-      </c>
+        <v>389</v>
+      </c>
+      <c r="G405" t="s"/>
       <c r="H405" t="s">
-        <v>410</v>
+        <v>392</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -12372,13 +11510,11 @@
         <v>10</v>
       </c>
       <c r="F406" t="s">
-        <v>20</v>
-      </c>
-      <c r="G406" t="s">
-        <v>31</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G406" t="s"/>
       <c r="H406" t="s">
-        <v>411</v>
+        <v>393</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -12398,13 +11534,11 @@
         <v>10</v>
       </c>
       <c r="F407" t="s">
-        <v>406</v>
-      </c>
-      <c r="G407" t="s">
-        <v>407</v>
-      </c>
+        <v>389</v>
+      </c>
+      <c r="G407" t="s"/>
       <c r="H407" t="s">
-        <v>412</v>
+        <v>394</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -12424,13 +11558,11 @@
         <v>10</v>
       </c>
       <c r="F408" t="s">
-        <v>20</v>
-      </c>
-      <c r="G408" t="s">
-        <v>31</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G408" t="s"/>
       <c r="H408" t="s">
-        <v>413</v>
+        <v>395</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -12450,13 +11582,11 @@
         <v>10</v>
       </c>
       <c r="F409" t="s">
-        <v>406</v>
-      </c>
-      <c r="G409" t="s">
-        <v>407</v>
-      </c>
+        <v>389</v>
+      </c>
+      <c r="G409" t="s"/>
       <c r="H409" t="s">
-        <v>414</v>
+        <v>396</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -12476,13 +11606,11 @@
         <v>10</v>
       </c>
       <c r="F410" t="s">
-        <v>20</v>
-      </c>
-      <c r="G410" t="s">
-        <v>31</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G410" t="s"/>
       <c r="H410" t="s">
-        <v>415</v>
+        <v>397</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -12502,13 +11630,11 @@
         <v>10</v>
       </c>
       <c r="F411" t="s">
-        <v>406</v>
-      </c>
-      <c r="G411" t="s">
-        <v>407</v>
-      </c>
+        <v>389</v>
+      </c>
+      <c r="G411" t="s"/>
       <c r="H411" t="s">
-        <v>416</v>
+        <v>398</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -12528,13 +11654,11 @@
         <v>10</v>
       </c>
       <c r="F412" t="s">
-        <v>20</v>
-      </c>
-      <c r="G412" t="s">
-        <v>31</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G412" t="s"/>
       <c r="H412" t="s">
-        <v>417</v>
+        <v>399</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -12554,13 +11678,11 @@
         <v>10</v>
       </c>
       <c r="F413" t="s">
-        <v>406</v>
-      </c>
-      <c r="G413" t="s">
-        <v>407</v>
-      </c>
+        <v>389</v>
+      </c>
+      <c r="G413" t="s"/>
       <c r="H413" t="s">
-        <v>418</v>
+        <v>400</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -12580,13 +11702,11 @@
         <v>10</v>
       </c>
       <c r="F414" t="s">
-        <v>20</v>
-      </c>
-      <c r="G414" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G414" t="s"/>
       <c r="H414" t="s">
-        <v>419</v>
+        <v>401</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -12606,13 +11726,11 @@
         <v>10</v>
       </c>
       <c r="F415" t="s">
-        <v>406</v>
-      </c>
-      <c r="G415" t="s">
-        <v>407</v>
-      </c>
+        <v>389</v>
+      </c>
+      <c r="G415" t="s"/>
       <c r="H415" t="s">
-        <v>420</v>
+        <v>402</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -12632,13 +11750,11 @@
         <v>10</v>
       </c>
       <c r="F416" t="s">
-        <v>20</v>
-      </c>
-      <c r="G416" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G416" t="s"/>
       <c r="H416" t="s">
-        <v>421</v>
+        <v>403</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -12658,13 +11774,11 @@
         <v>10</v>
       </c>
       <c r="F417" t="s">
-        <v>406</v>
-      </c>
-      <c r="G417" t="s">
-        <v>407</v>
-      </c>
+        <v>389</v>
+      </c>
+      <c r="G417" t="s"/>
       <c r="H417" t="s">
-        <v>422</v>
+        <v>404</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -12684,13 +11798,11 @@
         <v>10</v>
       </c>
       <c r="F418" t="s">
-        <v>20</v>
-      </c>
-      <c r="G418" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G418" t="s"/>
       <c r="H418" t="s">
-        <v>423</v>
+        <v>405</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -12710,13 +11822,11 @@
         <v>10</v>
       </c>
       <c r="F419" t="s">
+        <v>389</v>
+      </c>
+      <c r="G419" t="s"/>
+      <c r="H419" t="s">
         <v>406</v>
-      </c>
-      <c r="G419" t="s">
-        <v>407</v>
-      </c>
-      <c r="H419" t="s">
-        <v>424</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -12736,13 +11846,11 @@
         <v>10</v>
       </c>
       <c r="F420" t="s">
-        <v>20</v>
-      </c>
-      <c r="G420" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G420" t="s"/>
       <c r="H420" t="s">
-        <v>425</v>
+        <v>407</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -12762,13 +11870,11 @@
         <v>10</v>
       </c>
       <c r="F421" t="s">
-        <v>406</v>
-      </c>
-      <c r="G421" t="s">
-        <v>407</v>
-      </c>
+        <v>389</v>
+      </c>
+      <c r="G421" t="s"/>
       <c r="H421" t="s">
-        <v>426</v>
+        <v>408</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -12788,13 +11894,11 @@
         <v>10</v>
       </c>
       <c r="F422" t="s">
-        <v>20</v>
-      </c>
-      <c r="G422" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G422" t="s"/>
       <c r="H422" t="s">
-        <v>427</v>
+        <v>409</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -12814,13 +11918,11 @@
         <v>10</v>
       </c>
       <c r="F423" t="s">
-        <v>406</v>
-      </c>
-      <c r="G423" t="s">
-        <v>407</v>
-      </c>
+        <v>389</v>
+      </c>
+      <c r="G423" t="s"/>
       <c r="H423" t="s">
-        <v>426</v>
+        <v>408</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -12840,13 +11942,11 @@
         <v>10</v>
       </c>
       <c r="F424" t="s">
-        <v>406</v>
-      </c>
-      <c r="G424" t="s">
-        <v>407</v>
-      </c>
+        <v>389</v>
+      </c>
+      <c r="G424" t="s"/>
       <c r="H424" t="s">
-        <v>428</v>
+        <v>410</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -12866,13 +11966,11 @@
         <v>10</v>
       </c>
       <c r="F425" t="s">
-        <v>36</v>
-      </c>
-      <c r="G425" t="s">
-        <v>37</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="G425" t="s"/>
       <c r="H425" t="s">
-        <v>429</v>
+        <v>411</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -12892,13 +11990,11 @@
         <v>10</v>
       </c>
       <c r="F426" t="s">
-        <v>15</v>
-      </c>
-      <c r="G426" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G426" t="s"/>
       <c r="H426" t="s">
-        <v>430</v>
+        <v>412</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -12918,13 +12014,11 @@
         <v>10</v>
       </c>
       <c r="F427" t="s">
-        <v>20</v>
-      </c>
-      <c r="G427" t="s">
-        <v>34</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G427" t="s"/>
       <c r="H427" t="s">
-        <v>431</v>
+        <v>413</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -12944,13 +12038,11 @@
         <v>10</v>
       </c>
       <c r="F428" t="s">
-        <v>15</v>
-      </c>
-      <c r="G428" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G428" t="s"/>
       <c r="H428" t="s">
-        <v>432</v>
+        <v>414</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -12970,13 +12062,11 @@
         <v>10</v>
       </c>
       <c r="F429" t="s">
-        <v>20</v>
-      </c>
-      <c r="G429" t="s">
-        <v>34</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G429" t="s"/>
       <c r="H429" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -12996,13 +12086,11 @@
         <v>10</v>
       </c>
       <c r="F430" t="s">
-        <v>362</v>
-      </c>
-      <c r="G430" t="s">
-        <v>363</v>
-      </c>
+        <v>347</v>
+      </c>
+      <c r="G430" t="s"/>
       <c r="H430" t="s">
-        <v>433</v>
+        <v>415</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -13022,13 +12110,11 @@
         <v>10</v>
       </c>
       <c r="F431" t="s">
-        <v>20</v>
-      </c>
-      <c r="G431" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G431" t="s"/>
       <c r="H431" t="s">
-        <v>434</v>
+        <v>416</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -13048,13 +12134,11 @@
         <v>10</v>
       </c>
       <c r="F432" t="s">
-        <v>362</v>
-      </c>
-      <c r="G432" t="s">
-        <v>363</v>
-      </c>
+        <v>347</v>
+      </c>
+      <c r="G432" t="s"/>
       <c r="H432" t="s">
-        <v>435</v>
+        <v>417</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -13074,13 +12158,11 @@
         <v>10</v>
       </c>
       <c r="F433" t="s">
-        <v>20</v>
-      </c>
-      <c r="G433" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G433" t="s"/>
       <c r="H433" t="s">
-        <v>436</v>
+        <v>418</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -13100,13 +12182,11 @@
         <v>10</v>
       </c>
       <c r="F434" t="s">
-        <v>20</v>
-      </c>
-      <c r="G434" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G434" t="s"/>
       <c r="H434" t="s">
-        <v>437</v>
+        <v>419</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -13126,13 +12206,11 @@
         <v>10</v>
       </c>
       <c r="F435" t="s">
-        <v>362</v>
-      </c>
-      <c r="G435" t="s">
-        <v>363</v>
-      </c>
+        <v>347</v>
+      </c>
+      <c r="G435" t="s"/>
       <c r="H435" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -13152,13 +12230,11 @@
         <v>10</v>
       </c>
       <c r="F436" t="s">
-        <v>20</v>
-      </c>
-      <c r="G436" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G436" t="s"/>
       <c r="H436" t="s">
-        <v>439</v>
+        <v>421</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -13178,13 +12254,11 @@
         <v>10</v>
       </c>
       <c r="F437" t="s">
-        <v>362</v>
-      </c>
-      <c r="G437" t="s">
-        <v>363</v>
-      </c>
+        <v>347</v>
+      </c>
+      <c r="G437" t="s"/>
       <c r="H437" t="s">
-        <v>440</v>
+        <v>422</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -13204,13 +12278,11 @@
         <v>10</v>
       </c>
       <c r="F438" t="s">
-        <v>362</v>
-      </c>
-      <c r="G438" t="s">
-        <v>363</v>
-      </c>
+        <v>347</v>
+      </c>
+      <c r="G438" t="s"/>
       <c r="H438" t="s">
-        <v>441</v>
+        <v>423</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -13230,13 +12302,11 @@
         <v>10</v>
       </c>
       <c r="F439" t="s">
-        <v>20</v>
-      </c>
-      <c r="G439" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G439" t="s"/>
       <c r="H439" t="s">
-        <v>442</v>
+        <v>424</v>
       </c>
     </row>
     <row r="440" spans="1:8">
@@ -13256,13 +12326,11 @@
         <v>10</v>
       </c>
       <c r="F440" t="s">
-        <v>362</v>
-      </c>
-      <c r="G440" t="s">
-        <v>363</v>
-      </c>
+        <v>347</v>
+      </c>
+      <c r="G440" t="s"/>
       <c r="H440" t="s">
-        <v>443</v>
+        <v>425</v>
       </c>
     </row>
     <row r="441" spans="1:8">
@@ -13282,13 +12350,11 @@
         <v>10</v>
       </c>
       <c r="F441" t="s">
-        <v>20</v>
-      </c>
-      <c r="G441" t="s">
-        <v>34</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G441" t="s"/>
       <c r="H441" t="s">
-        <v>444</v>
+        <v>426</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -13308,13 +12374,11 @@
         <v>10</v>
       </c>
       <c r="F442" t="s">
-        <v>362</v>
-      </c>
-      <c r="G442" t="s">
-        <v>363</v>
-      </c>
+        <v>347</v>
+      </c>
+      <c r="G442" t="s"/>
       <c r="H442" t="s">
-        <v>445</v>
+        <v>427</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -13334,13 +12398,11 @@
         <v>10</v>
       </c>
       <c r="F443" t="s">
-        <v>20</v>
-      </c>
-      <c r="G443" t="s">
-        <v>34</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G443" t="s"/>
       <c r="H443" t="s">
-        <v>446</v>
+        <v>428</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -13360,13 +12422,11 @@
         <v>10</v>
       </c>
       <c r="F444" t="s">
-        <v>362</v>
-      </c>
-      <c r="G444" t="s">
-        <v>363</v>
-      </c>
+        <v>347</v>
+      </c>
+      <c r="G444" t="s"/>
       <c r="H444" t="s">
-        <v>447</v>
+        <v>429</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -13386,13 +12446,11 @@
         <v>10</v>
       </c>
       <c r="F445" t="s">
-        <v>20</v>
-      </c>
-      <c r="G445" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G445" t="s"/>
       <c r="H445" t="s">
-        <v>448</v>
+        <v>430</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -13412,13 +12470,11 @@
         <v>10</v>
       </c>
       <c r="F446" t="s">
-        <v>20</v>
-      </c>
-      <c r="G446" t="s">
-        <v>31</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G446" t="s"/>
       <c r="H446" t="s">
-        <v>449</v>
+        <v>431</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -13438,13 +12494,11 @@
         <v>10</v>
       </c>
       <c r="F447" t="s">
-        <v>362</v>
-      </c>
-      <c r="G447" t="s">
-        <v>363</v>
-      </c>
+        <v>347</v>
+      </c>
+      <c r="G447" t="s"/>
       <c r="H447" t="s">
-        <v>450</v>
+        <v>432</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -13464,13 +12518,11 @@
         <v>10</v>
       </c>
       <c r="F448" t="s">
-        <v>36</v>
-      </c>
-      <c r="G448" t="s">
-        <v>37</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="G448" t="s"/>
       <c r="H448" t="s">
-        <v>451</v>
+        <v>433</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -13490,13 +12542,11 @@
         <v>10</v>
       </c>
       <c r="F449" t="s">
-        <v>20</v>
-      </c>
-      <c r="G449" t="s">
-        <v>31</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G449" t="s"/>
       <c r="H449" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -13516,13 +12566,11 @@
         <v>10</v>
       </c>
       <c r="F450" t="s">
-        <v>36</v>
-      </c>
-      <c r="G450" t="s">
-        <v>37</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="G450" t="s"/>
       <c r="H450" t="s">
-        <v>452</v>
+        <v>434</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -13542,13 +12590,11 @@
         <v>10</v>
       </c>
       <c r="F451" t="s">
-        <v>20</v>
-      </c>
-      <c r="G451" t="s">
-        <v>31</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G451" t="s"/>
       <c r="H451" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -13568,13 +12614,11 @@
         <v>10</v>
       </c>
       <c r="F452" t="s">
-        <v>36</v>
-      </c>
-      <c r="G452" t="s">
-        <v>37</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="G452" t="s"/>
       <c r="H452" t="s">
-        <v>453</v>
+        <v>435</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -13594,13 +12638,11 @@
         <v>10</v>
       </c>
       <c r="F453" t="s">
-        <v>20</v>
-      </c>
-      <c r="G453" t="s">
-        <v>34</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G453" t="s"/>
       <c r="H453" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -13620,13 +12662,11 @@
         <v>10</v>
       </c>
       <c r="F454" t="s">
-        <v>20</v>
-      </c>
-      <c r="G454" t="s">
-        <v>31</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G454" t="s"/>
       <c r="H454" t="s">
-        <v>454</v>
+        <v>436</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -13646,13 +12686,11 @@
         <v>10</v>
       </c>
       <c r="F455" t="s">
-        <v>20</v>
-      </c>
-      <c r="G455" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G455" t="s"/>
       <c r="H455" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -13672,13 +12710,11 @@
         <v>10</v>
       </c>
       <c r="F456" t="s">
-        <v>36</v>
-      </c>
-      <c r="G456" t="s">
-        <v>37</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="G456" t="s"/>
       <c r="H456" t="s">
-        <v>455</v>
+        <v>437</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -13698,13 +12734,11 @@
         <v>10</v>
       </c>
       <c r="F457" t="s">
-        <v>20</v>
-      </c>
-      <c r="G457" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G457" t="s"/>
       <c r="H457" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -13724,13 +12758,11 @@
         <v>10</v>
       </c>
       <c r="F458" t="s">
-        <v>36</v>
-      </c>
-      <c r="G458" t="s">
-        <v>37</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="G458" t="s"/>
       <c r="H458" t="s">
-        <v>456</v>
+        <v>438</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -13750,13 +12782,11 @@
         <v>10</v>
       </c>
       <c r="F459" t="s">
-        <v>20</v>
-      </c>
-      <c r="G459" t="s">
-        <v>31</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G459" t="s"/>
       <c r="H459" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -13776,13 +12806,11 @@
         <v>10</v>
       </c>
       <c r="F460" t="s">
-        <v>36</v>
-      </c>
-      <c r="G460" t="s">
-        <v>37</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="G460" t="s"/>
       <c r="H460" t="s">
-        <v>456</v>
+        <v>438</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -13802,13 +12830,11 @@
         <v>10</v>
       </c>
       <c r="F461" t="s">
-        <v>20</v>
-      </c>
-      <c r="G461" t="s">
-        <v>34</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G461" t="s"/>
       <c r="H461" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -13828,13 +12854,11 @@
         <v>10</v>
       </c>
       <c r="F462" t="s">
-        <v>36</v>
-      </c>
-      <c r="G462" t="s">
-        <v>37</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="G462" t="s"/>
       <c r="H462" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -13854,13 +12878,11 @@
         <v>10</v>
       </c>
       <c r="F463" t="s">
-        <v>20</v>
-      </c>
-      <c r="G463" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G463" t="s"/>
       <c r="H463" t="s">
-        <v>457</v>
+        <v>439</v>
       </c>
     </row>
     <row r="464" spans="1:8">
@@ -13880,13 +12902,11 @@
         <v>10</v>
       </c>
       <c r="F464" t="s">
-        <v>36</v>
-      </c>
-      <c r="G464" t="s">
-        <v>37</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="G464" t="s"/>
       <c r="H464" t="s">
-        <v>458</v>
+        <v>440</v>
       </c>
     </row>
     <row r="465" spans="1:8">
@@ -13906,13 +12926,11 @@
         <v>10</v>
       </c>
       <c r="F465" t="s">
-        <v>20</v>
-      </c>
-      <c r="G465" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G465" t="s"/>
       <c r="H465" t="s">
-        <v>459</v>
+        <v>441</v>
       </c>
     </row>
     <row r="466" spans="1:8">
@@ -13932,13 +12950,11 @@
         <v>10</v>
       </c>
       <c r="F466" t="s">
-        <v>36</v>
-      </c>
-      <c r="G466" t="s">
-        <v>37</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="G466" t="s"/>
       <c r="H466" t="s">
-        <v>460</v>
+        <v>442</v>
       </c>
     </row>
     <row r="467" spans="1:8">
@@ -13958,13 +12974,11 @@
         <v>10</v>
       </c>
       <c r="F467" t="s">
-        <v>20</v>
-      </c>
-      <c r="G467" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G467" t="s"/>
       <c r="H467" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
     </row>
     <row r="468" spans="1:8">
@@ -13984,13 +12998,11 @@
         <v>10</v>
       </c>
       <c r="F468" t="s">
-        <v>20</v>
-      </c>
-      <c r="G468" t="s">
-        <v>31</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G468" t="s"/>
       <c r="H468" t="s">
-        <v>461</v>
+        <v>443</v>
       </c>
     </row>
     <row r="469" spans="1:8">
@@ -14010,13 +13022,11 @@
         <v>10</v>
       </c>
       <c r="F469" t="s">
-        <v>36</v>
-      </c>
-      <c r="G469" t="s">
-        <v>37</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="G469" t="s"/>
       <c r="H469" t="s">
-        <v>456</v>
+        <v>438</v>
       </c>
     </row>
     <row r="470" spans="1:8">
@@ -14036,13 +13046,11 @@
         <v>10</v>
       </c>
       <c r="F470" t="s">
-        <v>36</v>
-      </c>
-      <c r="G470" t="s">
-        <v>37</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="G470" t="s"/>
       <c r="H470" t="s">
-        <v>462</v>
+        <v>444</v>
       </c>
     </row>
     <row r="471" spans="1:8">
@@ -14062,13 +13070,11 @@
         <v>10</v>
       </c>
       <c r="F471" t="s">
-        <v>36</v>
-      </c>
-      <c r="G471" t="s">
-        <v>37</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="G471" t="s"/>
       <c r="H471" t="s">
-        <v>463</v>
+        <v>445</v>
       </c>
     </row>
     <row r="472" spans="1:8">
@@ -14088,13 +13094,11 @@
         <v>10</v>
       </c>
       <c r="F472" t="s">
-        <v>20</v>
-      </c>
-      <c r="G472" t="s">
-        <v>31</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G472" t="s"/>
       <c r="H472" t="s">
-        <v>464</v>
+        <v>446</v>
       </c>
     </row>
     <row r="473" spans="1:8">
@@ -14114,13 +13118,11 @@
         <v>10</v>
       </c>
       <c r="F473" t="s">
-        <v>36</v>
-      </c>
-      <c r="G473" t="s">
-        <v>37</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="G473" t="s"/>
       <c r="H473" t="s">
-        <v>456</v>
+        <v>438</v>
       </c>
     </row>
     <row r="474" spans="1:8">
@@ -14140,13 +13142,11 @@
         <v>10</v>
       </c>
       <c r="F474" t="s">
-        <v>36</v>
-      </c>
-      <c r="G474" t="s">
-        <v>37</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="G474" t="s"/>
       <c r="H474" t="s">
-        <v>465</v>
+        <v>447</v>
       </c>
     </row>
     <row r="475" spans="1:8">
@@ -14166,13 +13166,11 @@
         <v>10</v>
       </c>
       <c r="F475" t="s">
-        <v>20</v>
-      </c>
-      <c r="G475" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G475" t="s"/>
       <c r="H475" t="s">
-        <v>466</v>
+        <v>448</v>
       </c>
     </row>
     <row r="476" spans="1:8">
@@ -14192,13 +13190,11 @@
         <v>10</v>
       </c>
       <c r="F476" t="s">
-        <v>36</v>
-      </c>
-      <c r="G476" t="s">
-        <v>37</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="G476" t="s"/>
       <c r="H476" t="s">
-        <v>467</v>
+        <v>449</v>
       </c>
     </row>
     <row r="477" spans="1:8">
@@ -14218,13 +13214,11 @@
         <v>10</v>
       </c>
       <c r="F477" t="s">
-        <v>20</v>
-      </c>
-      <c r="G477" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G477" t="s"/>
       <c r="H477" t="s">
-        <v>468</v>
+        <v>450</v>
       </c>
     </row>
     <row r="478" spans="1:8">
@@ -14244,13 +13238,11 @@
         <v>10</v>
       </c>
       <c r="F478" t="s">
-        <v>36</v>
-      </c>
-      <c r="G478" t="s">
-        <v>37</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="G478" t="s"/>
       <c r="H478" t="s">
-        <v>469</v>
+        <v>451</v>
       </c>
     </row>
     <row r="479" spans="1:8">
@@ -14270,13 +13262,11 @@
         <v>10</v>
       </c>
       <c r="F479" t="s">
-        <v>20</v>
-      </c>
-      <c r="G479" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G479" t="s"/>
       <c r="H479" t="s">
-        <v>470</v>
+        <v>452</v>
       </c>
     </row>
     <row r="480" spans="1:8">
@@ -14296,13 +13286,11 @@
         <v>10</v>
       </c>
       <c r="F480" t="s">
-        <v>36</v>
-      </c>
-      <c r="G480" t="s">
-        <v>37</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="G480" t="s"/>
       <c r="H480" t="s">
-        <v>456</v>
+        <v>438</v>
       </c>
     </row>
     <row r="481" spans="1:8">
@@ -14322,13 +13310,11 @@
         <v>10</v>
       </c>
       <c r="F481" t="s">
-        <v>36</v>
-      </c>
-      <c r="G481" t="s">
-        <v>37</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="G481" t="s"/>
       <c r="H481" t="s">
-        <v>471</v>
+        <v>453</v>
       </c>
     </row>
     <row r="482" spans="1:8">
@@ -14348,13 +13334,11 @@
         <v>10</v>
       </c>
       <c r="F482" t="s">
-        <v>36</v>
-      </c>
-      <c r="G482" t="s">
-        <v>37</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="G482" t="s"/>
       <c r="H482" t="s">
-        <v>472</v>
+        <v>454</v>
       </c>
     </row>
     <row r="483" spans="1:8">
@@ -14374,13 +13358,11 @@
         <v>10</v>
       </c>
       <c r="F483" t="s">
-        <v>20</v>
-      </c>
-      <c r="G483" t="s">
-        <v>31</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G483" t="s"/>
       <c r="H483" t="s">
-        <v>473</v>
+        <v>455</v>
       </c>
     </row>
     <row r="484" spans="1:8">
@@ -14400,13 +13382,11 @@
         <v>10</v>
       </c>
       <c r="F484" t="s">
-        <v>36</v>
-      </c>
-      <c r="G484" t="s">
-        <v>37</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="G484" t="s"/>
       <c r="H484" t="s">
-        <v>474</v>
+        <v>456</v>
       </c>
     </row>
     <row r="485" spans="1:8">
@@ -14426,13 +13406,11 @@
         <v>10</v>
       </c>
       <c r="F485" t="s">
-        <v>36</v>
-      </c>
-      <c r="G485" t="s">
-        <v>37</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="G485" t="s"/>
       <c r="H485" t="s">
-        <v>475</v>
+        <v>457</v>
       </c>
     </row>
     <row r="486" spans="1:8">
@@ -14452,13 +13430,11 @@
         <v>10</v>
       </c>
       <c r="F486" t="s">
-        <v>36</v>
-      </c>
-      <c r="G486" t="s">
-        <v>37</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="G486" t="s"/>
       <c r="H486" t="s">
-        <v>476</v>
+        <v>458</v>
       </c>
     </row>
     <row r="487" spans="1:8">
@@ -14478,13 +13454,11 @@
         <v>10</v>
       </c>
       <c r="F487" t="s">
-        <v>20</v>
-      </c>
-      <c r="G487" t="s">
-        <v>31</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G487" t="s"/>
       <c r="H487" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="488" spans="1:8">
@@ -14504,13 +13478,11 @@
         <v>10</v>
       </c>
       <c r="F488" t="s">
-        <v>20</v>
-      </c>
-      <c r="G488" t="s">
-        <v>31</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G488" t="s"/>
       <c r="H488" t="s">
-        <v>477</v>
+        <v>459</v>
       </c>
     </row>
     <row r="489" spans="1:8">
@@ -14530,13 +13502,11 @@
         <v>10</v>
       </c>
       <c r="F489" t="s">
-        <v>36</v>
-      </c>
-      <c r="G489" t="s">
-        <v>37</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="G489" t="s"/>
       <c r="H489" t="s">
-        <v>478</v>
+        <v>460</v>
       </c>
     </row>
     <row r="490" spans="1:8">
@@ -14556,13 +13526,11 @@
         <v>10</v>
       </c>
       <c r="F490" t="s">
-        <v>36</v>
-      </c>
-      <c r="G490" t="s">
-        <v>37</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="G490" t="s"/>
       <c r="H490" t="s">
-        <v>479</v>
+        <v>461</v>
       </c>
     </row>
     <row r="491" spans="1:8">
@@ -14582,13 +13550,11 @@
         <v>10</v>
       </c>
       <c r="F491" t="s">
-        <v>20</v>
-      </c>
-      <c r="G491" t="s">
-        <v>31</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G491" t="s"/>
       <c r="H491" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="492" spans="1:8">
@@ -14608,13 +13574,11 @@
         <v>10</v>
       </c>
       <c r="F492" t="s">
-        <v>36</v>
-      </c>
-      <c r="G492" t="s">
-        <v>37</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="G492" t="s"/>
       <c r="H492" t="s">
-        <v>480</v>
+        <v>462</v>
       </c>
     </row>
     <row r="493" spans="1:8">
@@ -14634,13 +13598,11 @@
         <v>10</v>
       </c>
       <c r="F493" t="s">
-        <v>20</v>
-      </c>
-      <c r="G493" t="s">
-        <v>31</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G493" t="s"/>
       <c r="H493" t="s">
-        <v>481</v>
+        <v>463</v>
       </c>
     </row>
     <row r="494" spans="1:8">
@@ -14660,13 +13622,11 @@
         <v>10</v>
       </c>
       <c r="F494" t="s">
-        <v>36</v>
-      </c>
-      <c r="G494" t="s">
-        <v>37</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="G494" t="s"/>
       <c r="H494" t="s">
-        <v>482</v>
+        <v>464</v>
       </c>
     </row>
     <row r="495" spans="1:8">
@@ -14686,13 +13646,11 @@
         <v>10</v>
       </c>
       <c r="F495" t="s">
-        <v>20</v>
-      </c>
-      <c r="G495" t="s">
-        <v>34</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G495" t="s"/>
       <c r="H495" t="s">
-        <v>483</v>
+        <v>465</v>
       </c>
     </row>
     <row r="496" spans="1:8">
@@ -14712,13 +13670,11 @@
         <v>10</v>
       </c>
       <c r="F496" t="s">
-        <v>36</v>
-      </c>
-      <c r="G496" t="s">
-        <v>37</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="G496" t="s"/>
       <c r="H496" t="s">
-        <v>456</v>
+        <v>438</v>
       </c>
     </row>
     <row r="497" spans="1:8">
@@ -14738,13 +13694,11 @@
         <v>10</v>
       </c>
       <c r="F497" t="s">
-        <v>20</v>
-      </c>
-      <c r="G497" t="s">
-        <v>34</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G497" t="s"/>
       <c r="H497" t="s">
-        <v>484</v>
+        <v>466</v>
       </c>
     </row>
     <row r="498" spans="1:8">
@@ -14764,13 +13718,11 @@
         <v>10</v>
       </c>
       <c r="F498" t="s">
-        <v>36</v>
-      </c>
-      <c r="G498" t="s">
-        <v>37</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="G498" t="s"/>
       <c r="H498" t="s">
-        <v>485</v>
+        <v>467</v>
       </c>
     </row>
   </sheetData>
